--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Work\covid\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF92037-0A99-43E9-989C-9E5CBB1C0784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60FDC12E-4B16-4F23-B123-6454054EB5CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,16 +32,16 @@
     <t>UCI</t>
   </si>
   <si>
-    <t>NIVEL II</t>
+    <t>NO UCI</t>
   </si>
   <si>
-    <t>NO UCI (se considera la suma de hospitalización de nivel II y nivel III)</t>
+    <t>NIVEL II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,7 +138,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -150,7 +150,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -167,9 +167,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,31 +197,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -249,23 +232,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,16 +383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5352F8-35D7-4C20-BE39-D7CD05406C28}">
-  <dimension ref="A1:D313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,13 +400,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -451,7 +417,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -462,7 +428,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -473,7 +439,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -484,7 +450,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -495,7 +461,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -506,7 +472,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -517,7 +483,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -528,7 +494,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -539,7 +505,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -550,7 +516,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -561,7 +527,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -572,7 +538,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -583,7 +549,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -594,7 +560,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -605,7 +571,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -616,7 +582,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -627,7 +593,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -638,7 +604,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -649,7 +615,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -660,7 +626,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -671,7 +637,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -682,7 +648,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -693,7 +659,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -704,7 +670,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -715,7 +681,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -726,7 +692,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -737,7 +703,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -748,7 +714,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -759,7 +725,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -770,7 +736,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44043</v>
       </c>
@@ -781,7 +747,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -795,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -809,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -823,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -837,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -851,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -865,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -879,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -893,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -907,7 +873,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -921,7 +887,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -935,7 +901,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -949,7 +915,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -963,7 +929,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -977,7 +943,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -991,7 +957,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -1005,7 +971,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -1019,7 +985,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -1033,7 +999,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1047,7 +1013,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1061,7 +1027,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1075,7 +1041,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1089,7 +1055,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1103,7 +1069,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1117,7 +1083,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1131,7 +1097,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1145,7 +1111,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1159,7 +1125,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -1173,7 +1139,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -1187,7 +1153,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -1201,7 +1167,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -1215,7 +1181,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -1229,7 +1195,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -1243,7 +1209,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -1257,7 +1223,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -1271,7 +1237,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -1285,7 +1251,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -1299,7 +1265,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -1313,7 +1279,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -1327,7 +1293,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -1341,7 +1307,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -1355,7 +1321,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -1369,7 +1335,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -1383,7 +1349,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -1397,7 +1363,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -1411,7 +1377,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -1425,7 +1391,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -1439,7 +1405,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -1453,7 +1419,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -1467,7 +1433,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -1481,7 +1447,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -1495,7 +1461,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -1509,7 +1475,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -1523,7 +1489,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -1537,7 +1503,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -1551,7 +1517,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -1565,7 +1531,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -1579,7 +1545,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -1593,7 +1559,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -1607,7 +1573,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -1621,7 +1587,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -1635,7 +1601,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -1649,7 +1615,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -1663,7 +1629,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -1677,7 +1643,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -1691,7 +1657,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -1705,7 +1671,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -1719,7 +1685,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -1733,7 +1699,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -1747,7 +1713,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -1761,7 +1727,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -1775,7 +1741,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -1789,7 +1755,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -1803,7 +1769,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -1817,7 +1783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -1831,7 +1797,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -1845,7 +1811,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -1859,7 +1825,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -1873,7 +1839,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -1887,7 +1853,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -1901,7 +1867,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -1915,7 +1881,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -1929,7 +1895,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -1943,7 +1909,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -1957,7 +1923,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -1971,7 +1937,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -1985,7 +1951,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -1999,7 +1965,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -2013,7 +1979,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -2027,7 +1993,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -2041,7 +2007,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -2055,7 +2021,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -2069,7 +2035,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -2083,8 +2049,8 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>44137</v>
       </c>
       <c r="B126">
@@ -2097,8 +2063,8 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>44138</v>
       </c>
       <c r="B127">
@@ -2111,8 +2077,8 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>44139</v>
       </c>
       <c r="B128">
@@ -2125,8 +2091,8 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>44140</v>
       </c>
       <c r="B129">
@@ -2139,8 +2105,8 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>44141</v>
       </c>
       <c r="B130">
@@ -2153,8 +2119,8 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>44142</v>
       </c>
       <c r="B131">
@@ -2167,8 +2133,8 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>44143</v>
       </c>
       <c r="B132">
@@ -2181,8 +2147,8 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>44144</v>
       </c>
       <c r="B133">
@@ -2195,8 +2161,8 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>44145</v>
       </c>
       <c r="B134">
@@ -2209,8 +2175,8 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>44146</v>
       </c>
       <c r="B135">
@@ -2223,8 +2189,8 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>44147</v>
       </c>
       <c r="B136">
@@ -2237,8 +2203,8 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>44148</v>
       </c>
       <c r="B137">
@@ -2251,8 +2217,8 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>44149</v>
       </c>
       <c r="B138">
@@ -2265,8 +2231,8 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>44150</v>
       </c>
       <c r="B139">
@@ -2279,8 +2245,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>44151</v>
       </c>
       <c r="B140">
@@ -2293,8 +2259,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>44152</v>
       </c>
       <c r="B141">
@@ -2307,8 +2273,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>44153</v>
       </c>
       <c r="B142">
@@ -2321,8 +2287,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>44154</v>
       </c>
       <c r="B143">
@@ -2335,8 +2301,8 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>44155</v>
       </c>
       <c r="B144">
@@ -2349,8 +2315,8 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>44156</v>
       </c>
       <c r="B145">
@@ -2363,8 +2329,8 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>44157</v>
       </c>
       <c r="B146">
@@ -2377,8 +2343,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>44158</v>
       </c>
       <c r="B147">
@@ -2391,8 +2357,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>44159</v>
       </c>
       <c r="B148">
@@ -2405,8 +2371,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>44160</v>
       </c>
       <c r="B149">
@@ -2419,8 +2385,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>44161</v>
       </c>
       <c r="B150">
@@ -2433,8 +2399,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>44162</v>
       </c>
       <c r="B151">
@@ -2447,8 +2413,8 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>44163</v>
       </c>
       <c r="B152">
@@ -2461,8 +2427,8 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>44164</v>
       </c>
       <c r="B153">
@@ -2475,8 +2441,8 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>44165</v>
       </c>
       <c r="B154">
@@ -2489,8 +2455,8 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>44166</v>
       </c>
       <c r="B155">
@@ -2503,8 +2469,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>44167</v>
       </c>
       <c r="B156">
@@ -2517,8 +2483,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>44168</v>
       </c>
       <c r="B157">
@@ -2531,8 +2497,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>44169</v>
       </c>
       <c r="B158">
@@ -2545,8 +2511,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>44170</v>
       </c>
       <c r="B159">
@@ -2559,8 +2525,8 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>44171</v>
       </c>
       <c r="B160">
@@ -2573,8 +2539,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>44172</v>
       </c>
       <c r="B161">
@@ -2587,8 +2553,8 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>44173</v>
       </c>
       <c r="B162">
@@ -2601,8 +2567,8 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>44174</v>
       </c>
       <c r="B163">
@@ -2615,7 +2581,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44175</v>
       </c>
@@ -2629,8 +2595,8 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>44176</v>
       </c>
       <c r="B165">
@@ -2643,8 +2609,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>44177</v>
       </c>
       <c r="B166">
@@ -2657,8 +2623,8 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>44178</v>
       </c>
       <c r="B167">
@@ -2671,8 +2637,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>44179</v>
       </c>
       <c r="B168">
@@ -2685,8 +2651,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>44180</v>
       </c>
       <c r="B169">
@@ -2699,8 +2665,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>44181</v>
       </c>
       <c r="B170">
@@ -2713,8 +2679,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>44182</v>
       </c>
       <c r="B171">
@@ -2727,8 +2693,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>44183</v>
       </c>
       <c r="B172">
@@ -2741,8 +2707,8 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>44184</v>
       </c>
       <c r="B173">
@@ -2755,8 +2721,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>44185</v>
       </c>
       <c r="B174">
@@ -2769,8 +2735,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>44186</v>
       </c>
       <c r="B175">
@@ -2783,8 +2749,8 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>44187</v>
       </c>
       <c r="B176">
@@ -2797,8 +2763,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>44188</v>
       </c>
       <c r="B177">
@@ -2811,8 +2777,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>44189</v>
       </c>
       <c r="B178">
@@ -2825,8 +2791,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>44190</v>
       </c>
       <c r="B179">
@@ -2839,8 +2805,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>44191</v>
       </c>
       <c r="B180">
@@ -2853,8 +2819,8 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>44192</v>
       </c>
       <c r="B181">
@@ -2867,8 +2833,8 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>44193</v>
       </c>
       <c r="B182">
@@ -2881,8 +2847,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>44194</v>
       </c>
       <c r="B183">
@@ -2895,8 +2861,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>44195</v>
       </c>
       <c r="B184">
@@ -2909,8 +2875,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>44196</v>
       </c>
       <c r="B185">
@@ -2923,8 +2889,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>44197</v>
       </c>
       <c r="B186">
@@ -2937,8 +2903,8 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>44198</v>
       </c>
       <c r="B187">
@@ -2951,8 +2917,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>44199</v>
       </c>
       <c r="B188">
@@ -2965,8 +2931,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>44200</v>
       </c>
       <c r="B189">
@@ -2979,8 +2945,8 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>44201</v>
       </c>
       <c r="B190">
@@ -2993,8 +2959,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>44202</v>
       </c>
       <c r="B191">
@@ -3007,8 +2973,8 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>44203</v>
       </c>
       <c r="B192">
@@ -3021,8 +2987,8 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>44204</v>
       </c>
       <c r="B193">
@@ -3035,8 +3001,8 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>44205</v>
       </c>
       <c r="B194">
@@ -3049,8 +3015,8 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>44206</v>
       </c>
       <c r="B195">
@@ -3063,8 +3029,8 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>44207</v>
       </c>
       <c r="B196">
@@ -3077,8 +3043,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>44208</v>
       </c>
       <c r="B197">
@@ -3091,8 +3057,8 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>44209</v>
       </c>
       <c r="B198">
@@ -3105,8 +3071,8 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>44210</v>
       </c>
       <c r="B199">
@@ -3119,8 +3085,8 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>44211</v>
       </c>
       <c r="B200">
@@ -3133,8 +3099,8 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>44212</v>
       </c>
       <c r="B201">
@@ -3147,8 +3113,8 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>44213</v>
       </c>
       <c r="B202">
@@ -3161,7 +3127,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -3175,7 +3141,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -3189,7 +3155,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -3203,7 +3169,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -3217,7 +3183,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -3231,7 +3197,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -3245,7 +3211,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -3259,7 +3225,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -3273,7 +3239,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -3287,7 +3253,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -3301,7 +3267,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -3315,7 +3281,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -3329,7 +3295,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -3343,7 +3309,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -3357,7 +3323,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -3371,7 +3337,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -3385,7 +3351,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -3399,7 +3365,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -3413,7 +3379,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -3427,7 +3393,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -3441,7 +3407,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -3455,7 +3421,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -3469,7 +3435,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -3483,7 +3449,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -3497,7 +3463,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -3511,7 +3477,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -3525,7 +3491,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -3539,7 +3505,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -3553,7 +3519,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -3567,7 +3533,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -3581,7 +3547,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -3595,7 +3561,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -3609,7 +3575,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -3623,7 +3589,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -3637,7 +3603,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -3651,7 +3617,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -3665,7 +3631,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -3679,7 +3645,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -3693,7 +3659,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -3707,7 +3673,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -3721,7 +3687,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -3735,7 +3701,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -3749,7 +3715,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -3763,7 +3729,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -3777,7 +3743,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -3791,7 +3757,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -3805,7 +3771,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -3819,7 +3785,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -3833,7 +3799,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -3847,7 +3813,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -3861,7 +3827,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -3875,7 +3841,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -3889,7 +3855,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -3903,7 +3869,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -3917,7 +3883,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -3931,7 +3897,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -3945,7 +3911,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -3959,7 +3925,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -3973,7 +3939,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -3987,7 +3953,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -4001,7 +3967,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -4015,7 +3981,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -4029,7 +3995,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -4043,7 +4009,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -4057,7 +4023,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -4071,7 +4037,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -4085,7 +4051,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -4099,7 +4065,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -4113,7 +4079,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -4127,7 +4093,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -4141,7 +4107,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -4155,7 +4121,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -4169,7 +4135,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -4183,7 +4149,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -4197,7 +4163,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -4211,7 +4177,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -4225,7 +4191,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -4239,7 +4205,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -4253,7 +4219,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -4267,7 +4233,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -4281,7 +4247,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -4295,7 +4261,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -4309,7 +4275,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -4323,7 +4289,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -4337,7 +4303,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -4351,7 +4317,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -4365,7 +4331,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -4379,7 +4345,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -4393,7 +4359,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -4407,7 +4373,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -4421,7 +4387,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -4435,7 +4401,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -4449,7 +4415,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -4463,7 +4429,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -4477,7 +4443,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -4491,7 +4457,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -4505,7 +4471,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -4519,7 +4485,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -4533,7 +4499,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -4547,7 +4513,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -4561,7 +4527,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -4575,7 +4541,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -4589,7 +4555,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -4603,7 +4569,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -4617,7 +4583,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -4631,7 +4597,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -4645,7 +4611,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -4659,7 +4625,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -4673,7 +4639,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -4687,7 +4653,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -4701,7 +4667,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -4713,6 +4679,104 @@
       </c>
       <c r="D313">
         <v>0.41818181818181815</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>0.56682769726247983</v>
+      </c>
+      <c r="D314">
+        <v>0.41818181818181815</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>0.63787375415282388</v>
+      </c>
+      <c r="D315">
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>0.53054662379421225</v>
+      </c>
+      <c r="D316">
+        <v>0.3574660633484163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>0.53150242326332797</v>
+      </c>
+      <c r="D317">
+        <v>0.39366515837104071</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0.56270096463022512</v>
+      </c>
+      <c r="D318">
+        <v>0.43891402714932126</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>0.57004830917874394</v>
+      </c>
+      <c r="D319">
+        <v>0.46363636363636362</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>0.57004830917874394</v>
+      </c>
+      <c r="D320">
+        <v>0.46363636363636362</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD55966-9DE3-4184-B05A-FC262041D739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,16 +384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -417,7 +418,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -428,7 +429,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -439,7 +440,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -450,7 +451,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -461,7 +462,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -472,7 +473,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -483,7 +484,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -494,7 +495,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -505,7 +506,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -516,7 +517,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -527,7 +528,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -538,7 +539,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -549,7 +550,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -560,7 +561,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -571,7 +572,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -582,7 +583,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -593,7 +594,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -604,7 +605,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -615,7 +616,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -626,7 +627,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -637,7 +638,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -648,7 +649,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -659,7 +660,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -670,7 +671,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -681,7 +682,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -692,7 +693,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -703,7 +704,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -714,7 +715,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -725,7 +726,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -736,7 +737,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44043</v>
       </c>
@@ -747,7 +748,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -761,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -775,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -789,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -803,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -817,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -845,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -859,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -873,7 +874,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -887,7 +888,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -901,7 +902,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -915,7 +916,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -929,7 +930,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -957,7 +958,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -985,7 +986,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>44137</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>44138</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>44139</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>44140</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>44141</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>44142</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>44143</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>44144</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>44145</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>44146</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>44147</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>44148</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>44149</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>44150</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>44151</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44152</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44153</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44154</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>44155</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>44156</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>44157</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>44158</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>44159</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>44160</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>44161</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>44162</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>44163</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>44164</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>44165</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>44166</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>44167</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>44168</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>44169</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>44170</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>44171</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>44172</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>44173</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>44174</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44175</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>44176</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>44177</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>44178</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>44179</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>44180</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>44181</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>44182</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>44183</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>44184</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>44185</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>44186</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>44187</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>44188</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>44189</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>44190</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>44191</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>44192</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>44193</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>44194</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>44195</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>44196</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>44197</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>44198</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>44199</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>44200</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>44201</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>44202</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>44203</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>44204</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>44205</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>44206</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>44207</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>44208</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>44209</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>44210</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>44211</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>44212</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>44213</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44325</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44326</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44327</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44328</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44329</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>44330</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44331</v>
       </c>
@@ -4777,6 +4778,104 @@
       </c>
       <c r="D320">
         <v>0.46363636363636362</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0.53955696202531644</v>
+      </c>
+      <c r="D321">
+        <v>0.38528138528138528</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0.569620253164557</v>
+      </c>
+      <c r="D322">
+        <v>0.39826839826839827</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>0.5723076923076923</v>
+      </c>
+      <c r="D323">
+        <v>0.42570281124497994</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.56595092024539873</v>
+      </c>
+      <c r="D324">
+        <v>0.42231075697211157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0.5475460122699386</v>
+      </c>
+      <c r="D325">
+        <v>0.42231075697211157</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>0.55214723926380371</v>
+      </c>
+      <c r="D326">
+        <v>0.42231075697211157</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>44338</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0.55214723926380371</v>
+      </c>
+      <c r="D327">
+        <v>0.42231075697211157</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD55966-9DE3-4184-B05A-FC262041D739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83091E77-213A-4E71-A3BB-2AFC9FDB7358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327:A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4878,6 +4878,104 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0.56162246489859591</v>
+      </c>
+      <c r="D328">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>0.56162246489859591</v>
+      </c>
+      <c r="D329">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>0.55226209048361929</v>
+      </c>
+      <c r="D330">
+        <v>0.42916666666666664</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0.53510140405616224</v>
+      </c>
+      <c r="D331">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0.53198127925117</v>
+      </c>
+      <c r="D332">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>0.51170046801872071</v>
+      </c>
+      <c r="D333">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>0.5023400936037441</v>
+      </c>
+      <c r="D334">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83091E77-213A-4E71-A3BB-2AFC9FDB7358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B351B0-9EE0-4034-946C-1B70554E7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7740" yWindow="3816" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>fecha</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>NIVEL II</t>
+  </si>
+  <si>
+    <t>UCIN</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327:A334"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +430,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -418,7 +445,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -429,7 +456,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -440,7 +467,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -451,7 +478,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -462,7 +489,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -473,7 +500,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -484,7 +511,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -495,7 +522,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -506,7 +533,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -517,7 +544,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -528,7 +555,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -539,7 +566,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -550,7 +577,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -561,7 +588,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -4780,7 +4807,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44332</v>
       </c>
@@ -4794,7 +4821,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44333</v>
       </c>
@@ -4808,7 +4835,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44334</v>
       </c>
@@ -4822,7 +4849,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44335</v>
       </c>
@@ -4836,7 +4863,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44336</v>
       </c>
@@ -4850,7 +4877,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44337</v>
       </c>
@@ -4864,7 +4891,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44338</v>
       </c>
@@ -4878,7 +4905,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44339</v>
       </c>
@@ -4892,7 +4919,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44340</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44341</v>
       </c>
@@ -4920,7 +4947,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44342</v>
       </c>
@@ -4934,7 +4961,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44343</v>
       </c>
@@ -4948,7 +4975,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44344</v>
       </c>
@@ -4962,7 +4989,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44345</v>
       </c>
@@ -4974,6 +5001,244 @@
       </c>
       <c r="D334">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>44346</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>0.49770290964777947</v>
+      </c>
+      <c r="D335">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>0.48097412480974122</v>
+      </c>
+      <c r="D336">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="E336">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0.46960486322188449</v>
+      </c>
+      <c r="D337">
+        <v>0.3715415019762846</v>
+      </c>
+      <c r="E337">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="D338">
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="E338">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="D339">
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="E339">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="D340">
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="E340">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="D341">
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="E341">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="D342">
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>0.43010752688172044</v>
+      </c>
+      <c r="D343">
+        <v>0.31075697211155379</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>0.42396313364055299</v>
+      </c>
+      <c r="D344">
+        <v>0.31075697211155379</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>0.39477726574500765</v>
+      </c>
+      <c r="D345">
+        <v>0.28685258964143429</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0.39076923076923076</v>
+      </c>
+      <c r="D346">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>0.39076923076923076</v>
+      </c>
+      <c r="D347">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>0.39076923076923076</v>
+      </c>
+      <c r="D348">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B351B0-9EE0-4034-946C-1B70554E7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AE434-1D32-4732-96F2-3B3E036E1D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7740" yWindow="3816" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16068" yWindow="3060" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -112,28 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -409,11 +388,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="E348" sqref="E348"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5136,7 +5113,7 @@
         <v>0.36507936507936506</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -5153,7 +5130,7 @@
         <v>0.31075697211155379</v>
       </c>
       <c r="E343">
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -5170,7 +5147,7 @@
         <v>0.31075697211155379</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -5187,7 +5164,7 @@
         <v>0.28685258964143429</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,7 +5181,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,7 +5198,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -5238,6 +5215,363 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="E348">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>0.39076923076923076</v>
+      </c>
+      <c r="D349">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E349">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>0.36</v>
+      </c>
+      <c r="D350">
+        <v>0.248</v>
+      </c>
+      <c r="E350">
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>0.36307692307692307</v>
+      </c>
+      <c r="D351">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E351">
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>0.3707692307692308</v>
+      </c>
+      <c r="D352">
+        <v>0.248</v>
+      </c>
+      <c r="E352">
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>0.35384615384615387</v>
+      </c>
+      <c r="D353">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E353">
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="D354">
+        <v>0.224</v>
+      </c>
+      <c r="E354">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="D355">
+        <v>0.224</v>
+      </c>
+      <c r="E355">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="D356">
+        <v>0.224</v>
+      </c>
+      <c r="E356">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>0.30981595092024539</v>
+      </c>
+      <c r="D357">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>0.30828220858895705</v>
+      </c>
+      <c r="D358">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>0.32515337423312884</v>
+      </c>
+      <c r="D359">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E359">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>0.32515337423312884</v>
+      </c>
+      <c r="D360">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E360">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>0.30368098159509205</v>
+      </c>
+      <c r="D361">
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="E361">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>0.30368098159509205</v>
+      </c>
+      <c r="D362">
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="E362">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>0.30368098159509205</v>
+      </c>
+      <c r="D363">
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="E363">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>0.2748447204968944</v>
+      </c>
+      <c r="D364">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>0.2748447204968944</v>
+      </c>
+      <c r="D365">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>0.26863354037267079</v>
+      </c>
+      <c r="D366">
+        <v>0.21031746031746032</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>0.26552795031055898</v>
+      </c>
+      <c r="D367">
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>0.2839313572542902</v>
+      </c>
+      <c r="D368">
+        <v>0.20883534136546184</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>0.2839313572542902</v>
+      </c>
+      <c r="D369">
+        <v>0.20883534136546184</v>
+      </c>
+      <c r="E369">
         <v>1</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AE434-1D32-4732-96F2-3B3E036E1D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16068" yWindow="3060" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16065" yWindow="3060" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,14 +386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -422,7 +423,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -433,7 +434,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -444,7 +445,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -455,7 +456,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -466,7 +467,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -477,7 +478,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -488,7 +489,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -499,7 +500,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -510,7 +511,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -521,7 +522,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -532,7 +533,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -543,7 +544,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -554,7 +555,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -565,7 +566,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -576,7 +577,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -587,7 +588,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -598,7 +599,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -609,7 +610,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -620,7 +621,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -631,7 +632,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -642,7 +643,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -653,7 +654,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -664,7 +665,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -675,7 +676,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -686,7 +687,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -697,7 +698,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -708,7 +709,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -730,7 +731,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -741,7 +742,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44043</v>
       </c>
@@ -752,7 +753,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -766,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -780,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -794,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -808,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -822,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -836,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -850,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -864,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -878,7 +879,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -892,7 +893,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -906,7 +907,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -934,7 +935,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -948,7 +949,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -962,7 +963,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -976,7 +977,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44137</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44138</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44139</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44140</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44141</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44142</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>44143</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44144</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44145</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44146</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44147</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>44148</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44149</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44150</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44151</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44152</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44153</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44154</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44155</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>44156</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44157</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>44158</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>44159</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44160</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44161</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44162</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44163</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44164</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44165</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44166</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44167</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44168</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44169</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44170</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44171</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44172</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44173</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44174</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44175</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>44176</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44177</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44178</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44179</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44180</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44181</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44182</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>44183</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44184</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44185</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44186</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44187</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44188</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>44189</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>44190</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44191</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44192</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44193</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44194</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44195</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44196</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44197</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44198</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>44199</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44200</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>44201</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44202</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44203</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44204</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44205</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44206</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44207</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>44208</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44209</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44210</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44211</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44212</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44213</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>44325</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>44326</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>44327</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>44328</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>44329</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>44330</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>44331</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>44332</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>44333</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>44334</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>44335</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>44336</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>44337</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>44338</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>44339</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>44340</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>44341</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>44342</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>44343</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>44344</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>44345</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>44346</v>
       </c>
@@ -4993,11 +4994,8 @@
       <c r="D335">
         <v>0.39285714285714285</v>
       </c>
-      <c r="E335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>44347</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>44348</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>44349</v>
       </c>
@@ -5048,7 +5046,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>44350</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>44351</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>44352</v>
       </c>
@@ -5099,7 +5097,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>44353</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>44354</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>44355</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>44356</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>44357</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>44358</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>44359</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>44360</v>
       </c>
@@ -5235,7 +5233,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>44361</v>
       </c>
@@ -5252,7 +5250,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>44362</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>44363</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>44364</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>44365</v>
       </c>
@@ -5320,7 +5318,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>44366</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>44367</v>
       </c>
@@ -5354,7 +5352,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>44368</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>44369</v>
       </c>
@@ -5388,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>44370</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>44371</v>
       </c>
@@ -5422,7 +5420,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>44372</v>
       </c>
@@ -5439,7 +5437,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>44373</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>44374</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>44375</v>
       </c>
@@ -5490,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>44376</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>44377</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>44378</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>44379</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>44380</v>
       </c>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\dashboard-covid-geresa\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4290CD-4F80-492C-93D5-CC5CBEC773D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16065" yWindow="3060" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,16 +387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E369"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -423,7 +424,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -434,7 +435,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -445,7 +446,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -456,7 +457,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -467,7 +468,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -478,7 +479,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -489,7 +490,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -500,7 +501,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -511,7 +512,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -522,7 +523,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -533,7 +534,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -555,7 +556,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -566,7 +567,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -577,7 +578,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -588,7 +589,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -599,7 +600,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -610,7 +611,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -621,7 +622,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -632,7 +633,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -643,7 +644,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -654,7 +655,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -665,7 +666,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -676,7 +677,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -687,7 +688,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -698,7 +699,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -709,7 +710,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -731,7 +732,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -742,7 +743,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44043</v>
       </c>
@@ -753,7 +754,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -781,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -795,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -809,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -823,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -837,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -865,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -879,7 +880,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -893,7 +894,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -907,7 +908,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -921,7 +922,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -935,7 +936,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -949,7 +950,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -977,7 +978,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -991,7 +992,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>44137</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>44138</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>44139</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>44140</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>44141</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>44142</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>44143</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>44144</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>44145</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>44146</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>44147</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>44148</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>44149</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>44150</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>44151</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44152</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44153</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44154</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>44155</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>44156</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>44157</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>44158</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>44159</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>44160</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>44161</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>44162</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>44163</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>44164</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>44165</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>44166</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>44167</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>44168</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>44169</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>44170</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>44171</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>44172</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>44173</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>44174</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44175</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>44176</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>44177</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>44178</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>44179</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>44180</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>44181</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>44182</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>44183</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>44184</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>44185</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>44186</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>44187</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>44188</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>44189</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>44190</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>44191</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>44192</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>44193</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>44194</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>44195</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>44196</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>44197</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>44198</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>44199</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>44200</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>44201</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>44202</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>44203</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>44204</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>44205</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>44206</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>44207</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>44208</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>44209</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>44210</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>44211</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>44212</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>44213</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44325</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44326</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44327</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44328</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44329</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>44330</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44331</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44332</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44333</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44334</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44335</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44336</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44337</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44338</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44339</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44340</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44341</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44342</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44343</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44344</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44345</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>44346</v>
       </c>
@@ -4994,8 +4995,11 @@
       <c r="D335">
         <v>0.39285714285714285</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>44347</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>44348</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>44349</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>44350</v>
       </c>
@@ -5063,7 +5067,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>44351</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>44352</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>44353</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>44354</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>44355</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>44356</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>44357</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>44358</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>44359</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>44360</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>44361</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>44362</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>44363</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>44364</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>44365</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>44366</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>44367</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>44368</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>44369</v>
       </c>
@@ -5386,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>44370</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>44371</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>44372</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>44373</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>44374</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>44375</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>44376</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>44377</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>44378</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>44379</v>
       </c>
@@ -5556,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>44380</v>
       </c>
@@ -5571,6 +5575,244 @@
       </c>
       <c r="E369">
         <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>0.2839313572542902</v>
+      </c>
+      <c r="D370">
+        <v>0.20883534136546184</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B371">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C371">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="D371">
+        <v>0.20161290322580644</v>
+      </c>
+      <c r="E371">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B372">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C372">
+        <v>0.29531249999999998</v>
+      </c>
+      <c r="D372">
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="E372">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>0.26406249999999998</v>
+      </c>
+      <c r="D373">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E373">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>0.26093749999999999</v>
+      </c>
+      <c r="D374">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E374">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D375">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E375">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D376">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E376">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D377">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E377">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D378">
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="E378">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>0.26127527216174184</v>
+      </c>
+      <c r="D379">
+        <v>0.20717131474103587</v>
+      </c>
+      <c r="E379">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>0.25741029641185648</v>
+      </c>
+      <c r="D380">
+        <v>0.20080321285140562</v>
+      </c>
+      <c r="E380">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>0.25429017160686429</v>
+      </c>
+      <c r="D381">
+        <v>0.20481927710843373</v>
+      </c>
+      <c r="E381">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>0.24685534591194969</v>
+      </c>
+      <c r="D382">
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="E382">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>0.24685534591194969</v>
+      </c>
+      <c r="D383">
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="E383">
+        <v>0.45454545454545453</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4290CD-4F80-492C-93D5-CC5CBEC773D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40B9A3-65C8-44FA-90E0-BB492FEB1B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="3864" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="C382" sqref="C382"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +422,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>44014</v>
       </c>
       <c r="B3">
@@ -436,7 +433,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>44015</v>
       </c>
       <c r="B4">
@@ -447,7 +444,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>44016</v>
       </c>
       <c r="B5">
@@ -458,7 +455,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>44017</v>
       </c>
       <c r="B6">
@@ -469,7 +466,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44018</v>
       </c>
       <c r="B7">
@@ -480,7 +477,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>44019</v>
       </c>
       <c r="B8">
@@ -491,7 +488,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>44020</v>
       </c>
       <c r="B9">
@@ -502,7 +499,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>44021</v>
       </c>
       <c r="B10">
@@ -513,7 +510,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>44022</v>
       </c>
       <c r="B11">
@@ -524,7 +521,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>44023</v>
       </c>
       <c r="B12">
@@ -535,7 +532,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>44024</v>
       </c>
       <c r="B13">
@@ -546,7 +543,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>44025</v>
       </c>
       <c r="B14">
@@ -557,7 +554,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>44026</v>
       </c>
       <c r="B15">
@@ -568,7 +565,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>44027</v>
       </c>
       <c r="B16">
@@ -579,7 +576,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>44028</v>
       </c>
       <c r="B17">
@@ -590,7 +587,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>44029</v>
       </c>
       <c r="B18">
@@ -601,7 +598,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>44030</v>
       </c>
       <c r="B19">
@@ -612,7 +609,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>44031</v>
       </c>
       <c r="B20">
@@ -623,7 +620,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>44032</v>
       </c>
       <c r="B21">
@@ -634,7 +631,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>44033</v>
       </c>
       <c r="B22">
@@ -645,7 +642,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>44034</v>
       </c>
       <c r="B23">
@@ -656,7 +653,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>44035</v>
       </c>
       <c r="B24">
@@ -667,7 +664,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>44036</v>
       </c>
       <c r="B25">
@@ -678,7 +675,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>44037</v>
       </c>
       <c r="B26">
@@ -689,7 +686,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>44038</v>
       </c>
       <c r="B27">
@@ -700,7 +697,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>44039</v>
       </c>
       <c r="B28">
@@ -711,7 +708,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>44040</v>
       </c>
       <c r="B29">
@@ -722,7 +719,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>44041</v>
       </c>
       <c r="B30">
@@ -733,7 +730,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>44042</v>
       </c>
       <c r="B31">
@@ -744,7 +741,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>44043</v>
       </c>
       <c r="B32">
@@ -755,7 +752,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>44044</v>
       </c>
       <c r="B33">
@@ -769,7 +766,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>44045</v>
       </c>
       <c r="B34">
@@ -783,7 +780,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>44046</v>
       </c>
       <c r="B35">
@@ -797,7 +794,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>44047</v>
       </c>
       <c r="B36">
@@ -811,7 +808,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>44048</v>
       </c>
       <c r="B37">
@@ -825,7 +822,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>44049</v>
       </c>
       <c r="B38">
@@ -839,7 +836,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>44050</v>
       </c>
       <c r="B39">
@@ -853,7 +850,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>44051</v>
       </c>
       <c r="B40">
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>44052</v>
       </c>
       <c r="B41">
@@ -881,7 +878,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>44053</v>
       </c>
       <c r="B42">
@@ -895,7 +892,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>44054</v>
       </c>
       <c r="B43">
@@ -909,7 +906,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>44055</v>
       </c>
       <c r="B44">
@@ -923,7 +920,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44056</v>
       </c>
       <c r="B45">
@@ -937,7 +934,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44057</v>
       </c>
       <c r="B46">
@@ -951,7 +948,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>44058</v>
       </c>
       <c r="B47">
@@ -965,7 +962,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>44059</v>
       </c>
       <c r="B48">
@@ -979,7 +976,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>44060</v>
       </c>
       <c r="B49">
@@ -993,7 +990,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>44061</v>
       </c>
       <c r="B50">
@@ -1007,7 +1004,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>44062</v>
       </c>
       <c r="B51">
@@ -1021,7 +1018,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>44063</v>
       </c>
       <c r="B52">
@@ -1035,7 +1032,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>44064</v>
       </c>
       <c r="B53">
@@ -1049,7 +1046,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>44065</v>
       </c>
       <c r="B54">
@@ -1063,7 +1060,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>44066</v>
       </c>
       <c r="B55">
@@ -1077,7 +1074,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>44067</v>
       </c>
       <c r="B56">
@@ -1091,7 +1088,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>44068</v>
       </c>
       <c r="B57">
@@ -1105,7 +1102,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>44069</v>
       </c>
       <c r="B58">
@@ -1119,7 +1116,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>44070</v>
       </c>
       <c r="B59">
@@ -1133,7 +1130,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44071</v>
       </c>
       <c r="B60">
@@ -1147,7 +1144,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>44072</v>
       </c>
       <c r="B61">
@@ -1161,7 +1158,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>44073</v>
       </c>
       <c r="B62">
@@ -1175,7 +1172,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>44074</v>
       </c>
       <c r="B63">
@@ -1189,7 +1186,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>44075</v>
       </c>
       <c r="B64">
@@ -1203,7 +1200,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>44076</v>
       </c>
       <c r="B65">
@@ -1217,7 +1214,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>44077</v>
       </c>
       <c r="B66">
@@ -1231,7 +1228,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>44078</v>
       </c>
       <c r="B67">
@@ -1245,7 +1242,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>44079</v>
       </c>
       <c r="B68">
@@ -1259,7 +1256,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>44080</v>
       </c>
       <c r="B69">
@@ -1273,7 +1270,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>44081</v>
       </c>
       <c r="B70">
@@ -1287,7 +1284,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>44082</v>
       </c>
       <c r="B71">
@@ -1301,7 +1298,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>44083</v>
       </c>
       <c r="B72">
@@ -1315,7 +1312,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>44084</v>
       </c>
       <c r="B73">
@@ -1329,7 +1326,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>44085</v>
       </c>
       <c r="B74">
@@ -1343,7 +1340,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>44086</v>
       </c>
       <c r="B75">
@@ -1357,7 +1354,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>44087</v>
       </c>
       <c r="B76">
@@ -1371,7 +1368,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>44088</v>
       </c>
       <c r="B77">
@@ -1385,7 +1382,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>44089</v>
       </c>
       <c r="B78">
@@ -1399,7 +1396,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>44090</v>
       </c>
       <c r="B79">
@@ -1413,7 +1410,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>44091</v>
       </c>
       <c r="B80">
@@ -1427,7 +1424,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>44092</v>
       </c>
       <c r="B81">
@@ -1441,7 +1438,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>44093</v>
       </c>
       <c r="B82">
@@ -1455,7 +1452,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>44094</v>
       </c>
       <c r="B83">
@@ -1469,7 +1466,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>44095</v>
       </c>
       <c r="B84">
@@ -1483,7 +1480,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>44096</v>
       </c>
       <c r="B85">
@@ -1497,7 +1494,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>44097</v>
       </c>
       <c r="B86">
@@ -1511,7 +1508,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>44098</v>
       </c>
       <c r="B87">
@@ -1525,7 +1522,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>44099</v>
       </c>
       <c r="B88">
@@ -1539,7 +1536,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>44100</v>
       </c>
       <c r="B89">
@@ -1553,7 +1550,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>44101</v>
       </c>
       <c r="B90">
@@ -1567,7 +1564,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>44102</v>
       </c>
       <c r="B91">
@@ -1581,7 +1578,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>44103</v>
       </c>
       <c r="B92">
@@ -1595,7 +1592,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>44104</v>
       </c>
       <c r="B93">
@@ -1609,7 +1606,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>44105</v>
       </c>
       <c r="B94">
@@ -1623,7 +1620,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>44106</v>
       </c>
       <c r="B95">
@@ -1637,7 +1634,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>44107</v>
       </c>
       <c r="B96">
@@ -1651,7 +1648,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>44108</v>
       </c>
       <c r="B97">
@@ -1665,7 +1662,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>44109</v>
       </c>
       <c r="B98">
@@ -1679,7 +1676,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>44110</v>
       </c>
       <c r="B99">
@@ -1693,7 +1690,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>44111</v>
       </c>
       <c r="B100">
@@ -1707,7 +1704,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>44112</v>
       </c>
       <c r="B101">
@@ -1721,7 +1718,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>44113</v>
       </c>
       <c r="B102">
@@ -1735,7 +1732,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>44114</v>
       </c>
       <c r="B103">
@@ -1749,7 +1746,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>44115</v>
       </c>
       <c r="B104">
@@ -1763,7 +1760,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>44116</v>
       </c>
       <c r="B105">
@@ -1777,7 +1774,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>44117</v>
       </c>
       <c r="B106">
@@ -1791,7 +1788,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>44118</v>
       </c>
       <c r="B107">
@@ -1805,7 +1802,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>44119</v>
       </c>
       <c r="B108">
@@ -1819,7 +1816,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>44120</v>
       </c>
       <c r="B109">
@@ -1833,7 +1830,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>44121</v>
       </c>
       <c r="B110">
@@ -1847,7 +1844,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>44122</v>
       </c>
       <c r="B111">
@@ -1861,7 +1858,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>44123</v>
       </c>
       <c r="B112">
@@ -1875,7 +1872,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>44124</v>
       </c>
       <c r="B113">
@@ -1889,7 +1886,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>44125</v>
       </c>
       <c r="B114">
@@ -1903,7 +1900,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>44126</v>
       </c>
       <c r="B115">
@@ -1917,7 +1914,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>44127</v>
       </c>
       <c r="B116">
@@ -1931,7 +1928,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>44128</v>
       </c>
       <c r="B117">
@@ -1945,7 +1942,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>44129</v>
       </c>
       <c r="B118">
@@ -1959,7 +1956,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>44130</v>
       </c>
       <c r="B119">
@@ -1973,7 +1970,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>44131</v>
       </c>
       <c r="B120">
@@ -1987,7 +1984,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>44132</v>
       </c>
       <c r="B121">
@@ -2001,7 +1998,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>44133</v>
       </c>
       <c r="B122">
@@ -2015,7 +2012,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>44134</v>
       </c>
       <c r="B123">
@@ -2029,7 +2026,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>44135</v>
       </c>
       <c r="B124">
@@ -2043,7 +2040,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>44136</v>
       </c>
       <c r="B125">
@@ -2057,7 +2054,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+      <c r="A126" s="1">
         <v>44137</v>
       </c>
       <c r="B126">
@@ -2071,7 +2068,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+      <c r="A127" s="1">
         <v>44138</v>
       </c>
       <c r="B127">
@@ -2085,7 +2082,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
+      <c r="A128" s="1">
         <v>44139</v>
       </c>
       <c r="B128">
@@ -2099,7 +2096,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
+      <c r="A129" s="1">
         <v>44140</v>
       </c>
       <c r="B129">
@@ -2113,7 +2110,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
+      <c r="A130" s="1">
         <v>44141</v>
       </c>
       <c r="B130">
@@ -2127,7 +2124,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+      <c r="A131" s="1">
         <v>44142</v>
       </c>
       <c r="B131">
@@ -2141,7 +2138,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
+      <c r="A132" s="1">
         <v>44143</v>
       </c>
       <c r="B132">
@@ -2155,7 +2152,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
+      <c r="A133" s="1">
         <v>44144</v>
       </c>
       <c r="B133">
@@ -2169,7 +2166,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
+      <c r="A134" s="1">
         <v>44145</v>
       </c>
       <c r="B134">
@@ -2183,7 +2180,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+      <c r="A135" s="1">
         <v>44146</v>
       </c>
       <c r="B135">
@@ -2197,7 +2194,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
+      <c r="A136" s="1">
         <v>44147</v>
       </c>
       <c r="B136">
@@ -2211,7 +2208,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
+      <c r="A137" s="1">
         <v>44148</v>
       </c>
       <c r="B137">
@@ -2225,7 +2222,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
+      <c r="A138" s="1">
         <v>44149</v>
       </c>
       <c r="B138">
@@ -2239,7 +2236,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
+      <c r="A139" s="1">
         <v>44150</v>
       </c>
       <c r="B139">
@@ -2253,7 +2250,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
+      <c r="A140" s="1">
         <v>44151</v>
       </c>
       <c r="B140">
@@ -2267,7 +2264,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
+      <c r="A141" s="1">
         <v>44152</v>
       </c>
       <c r="B141">
@@ -2281,7 +2278,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
+      <c r="A142" s="1">
         <v>44153</v>
       </c>
       <c r="B142">
@@ -2295,7 +2292,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
+      <c r="A143" s="1">
         <v>44154</v>
       </c>
       <c r="B143">
@@ -2309,7 +2306,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
+      <c r="A144" s="1">
         <v>44155</v>
       </c>
       <c r="B144">
@@ -2323,7 +2320,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
+      <c r="A145" s="1">
         <v>44156</v>
       </c>
       <c r="B145">
@@ -2337,7 +2334,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+      <c r="A146" s="1">
         <v>44157</v>
       </c>
       <c r="B146">
@@ -2351,7 +2348,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+      <c r="A147" s="1">
         <v>44158</v>
       </c>
       <c r="B147">
@@ -2365,7 +2362,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+      <c r="A148" s="1">
         <v>44159</v>
       </c>
       <c r="B148">
@@ -2379,7 +2376,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+      <c r="A149" s="1">
         <v>44160</v>
       </c>
       <c r="B149">
@@ -2393,7 +2390,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+      <c r="A150" s="1">
         <v>44161</v>
       </c>
       <c r="B150">
@@ -2407,7 +2404,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+      <c r="A151" s="1">
         <v>44162</v>
       </c>
       <c r="B151">
@@ -2421,7 +2418,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+      <c r="A152" s="1">
         <v>44163</v>
       </c>
       <c r="B152">
@@ -2435,7 +2432,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+      <c r="A153" s="1">
         <v>44164</v>
       </c>
       <c r="B153">
@@ -2449,7 +2446,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+      <c r="A154" s="1">
         <v>44165</v>
       </c>
       <c r="B154">
@@ -2463,7 +2460,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+      <c r="A155" s="1">
         <v>44166</v>
       </c>
       <c r="B155">
@@ -2477,7 +2474,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+      <c r="A156" s="1">
         <v>44167</v>
       </c>
       <c r="B156">
@@ -2491,7 +2488,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+      <c r="A157" s="1">
         <v>44168</v>
       </c>
       <c r="B157">
@@ -2505,7 +2502,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+      <c r="A158" s="1">
         <v>44169</v>
       </c>
       <c r="B158">
@@ -2519,7 +2516,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+      <c r="A159" s="1">
         <v>44170</v>
       </c>
       <c r="B159">
@@ -2533,7 +2530,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+      <c r="A160" s="1">
         <v>44171</v>
       </c>
       <c r="B160">
@@ -2547,7 +2544,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+      <c r="A161" s="1">
         <v>44172</v>
       </c>
       <c r="B161">
@@ -2561,7 +2558,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+      <c r="A162" s="1">
         <v>44173</v>
       </c>
       <c r="B162">
@@ -2575,7 +2572,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+      <c r="A163" s="1">
         <v>44174</v>
       </c>
       <c r="B163">
@@ -2589,7 +2586,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <v>44175</v>
       </c>
       <c r="B164">
@@ -2603,7 +2600,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
+      <c r="A165" s="1">
         <v>44176</v>
       </c>
       <c r="B165">
@@ -2617,7 +2614,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
+      <c r="A166" s="1">
         <v>44177</v>
       </c>
       <c r="B166">
@@ -2631,7 +2628,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
+      <c r="A167" s="1">
         <v>44178</v>
       </c>
       <c r="B167">
@@ -2645,7 +2642,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="4">
+      <c r="A168" s="1">
         <v>44179</v>
       </c>
       <c r="B168">
@@ -2659,7 +2656,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
+      <c r="A169" s="1">
         <v>44180</v>
       </c>
       <c r="B169">
@@ -2673,7 +2670,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
+      <c r="A170" s="1">
         <v>44181</v>
       </c>
       <c r="B170">
@@ -2687,7 +2684,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
+      <c r="A171" s="1">
         <v>44182</v>
       </c>
       <c r="B171">
@@ -2701,7 +2698,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="4">
+      <c r="A172" s="1">
         <v>44183</v>
       </c>
       <c r="B172">
@@ -2715,7 +2712,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
+      <c r="A173" s="1">
         <v>44184</v>
       </c>
       <c r="B173">
@@ -2729,7 +2726,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="4">
+      <c r="A174" s="1">
         <v>44185</v>
       </c>
       <c r="B174">
@@ -2743,7 +2740,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="4">
+      <c r="A175" s="1">
         <v>44186</v>
       </c>
       <c r="B175">
@@ -2757,7 +2754,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="4">
+      <c r="A176" s="1">
         <v>44187</v>
       </c>
       <c r="B176">
@@ -2771,7 +2768,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="4">
+      <c r="A177" s="1">
         <v>44188</v>
       </c>
       <c r="B177">
@@ -2785,7 +2782,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="4">
+      <c r="A178" s="1">
         <v>44189</v>
       </c>
       <c r="B178">
@@ -2799,7 +2796,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="4">
+      <c r="A179" s="1">
         <v>44190</v>
       </c>
       <c r="B179">
@@ -2813,7 +2810,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="4">
+      <c r="A180" s="1">
         <v>44191</v>
       </c>
       <c r="B180">
@@ -2827,7 +2824,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
+      <c r="A181" s="1">
         <v>44192</v>
       </c>
       <c r="B181">
@@ -2841,7 +2838,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="4">
+      <c r="A182" s="1">
         <v>44193</v>
       </c>
       <c r="B182">
@@ -2855,7 +2852,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
+      <c r="A183" s="1">
         <v>44194</v>
       </c>
       <c r="B183">
@@ -2869,7 +2866,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="4">
+      <c r="A184" s="1">
         <v>44195</v>
       </c>
       <c r="B184">
@@ -2883,7 +2880,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
+      <c r="A185" s="1">
         <v>44196</v>
       </c>
       <c r="B185">
@@ -2897,7 +2894,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
+      <c r="A186" s="1">
         <v>44197</v>
       </c>
       <c r="B186">
@@ -2911,7 +2908,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
+      <c r="A187" s="1">
         <v>44198</v>
       </c>
       <c r="B187">
@@ -2925,7 +2922,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
+      <c r="A188" s="1">
         <v>44199</v>
       </c>
       <c r="B188">
@@ -2939,7 +2936,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
+      <c r="A189" s="1">
         <v>44200</v>
       </c>
       <c r="B189">
@@ -2953,7 +2950,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
+      <c r="A190" s="1">
         <v>44201</v>
       </c>
       <c r="B190">
@@ -2967,7 +2964,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
+      <c r="A191" s="1">
         <v>44202</v>
       </c>
       <c r="B191">
@@ -2981,7 +2978,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
+      <c r="A192" s="1">
         <v>44203</v>
       </c>
       <c r="B192">
@@ -2995,7 +2992,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
+      <c r="A193" s="1">
         <v>44204</v>
       </c>
       <c r="B193">
@@ -3009,7 +3006,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+      <c r="A194" s="1">
         <v>44205</v>
       </c>
       <c r="B194">
@@ -3023,7 +3020,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
+      <c r="A195" s="1">
         <v>44206</v>
       </c>
       <c r="B195">
@@ -3037,7 +3034,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
+      <c r="A196" s="1">
         <v>44207</v>
       </c>
       <c r="B196">
@@ -3051,7 +3048,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="4">
+      <c r="A197" s="1">
         <v>44208</v>
       </c>
       <c r="B197">
@@ -3065,7 +3062,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
+      <c r="A198" s="1">
         <v>44209</v>
       </c>
       <c r="B198">
@@ -3079,7 +3076,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
+      <c r="A199" s="1">
         <v>44210</v>
       </c>
       <c r="B199">
@@ -3093,7 +3090,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
+      <c r="A200" s="1">
         <v>44211</v>
       </c>
       <c r="B200">
@@ -3107,7 +3104,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
+      <c r="A201" s="1">
         <v>44212</v>
       </c>
       <c r="B201">
@@ -3121,7 +3118,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
+      <c r="A202" s="1">
         <v>44213</v>
       </c>
       <c r="B202">
@@ -3135,7 +3132,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>44214</v>
       </c>
       <c r="B203">
@@ -3149,7 +3146,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="A204" s="1">
         <v>44215</v>
       </c>
       <c r="B204">
@@ -3163,7 +3160,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="A205" s="1">
         <v>44216</v>
       </c>
       <c r="B205">
@@ -3177,7 +3174,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>44217</v>
       </c>
       <c r="B206">
@@ -3191,7 +3188,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>44218</v>
       </c>
       <c r="B207">
@@ -3205,7 +3202,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>44219</v>
       </c>
       <c r="B208">
@@ -3219,7 +3216,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="A209" s="1">
         <v>44220</v>
       </c>
       <c r="B209">
@@ -3233,7 +3230,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="A210" s="1">
         <v>44221</v>
       </c>
       <c r="B210">
@@ -3247,7 +3244,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+      <c r="A211" s="1">
         <v>44222</v>
       </c>
       <c r="B211">
@@ -3261,7 +3258,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
+      <c r="A212" s="1">
         <v>44223</v>
       </c>
       <c r="B212">
@@ -3275,7 +3272,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
+      <c r="A213" s="1">
         <v>44224</v>
       </c>
       <c r="B213">
@@ -3289,7 +3286,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+      <c r="A214" s="1">
         <v>44225</v>
       </c>
       <c r="B214">
@@ -3303,7 +3300,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
+      <c r="A215" s="1">
         <v>44226</v>
       </c>
       <c r="B215">
@@ -3317,7 +3314,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
+      <c r="A216" s="1">
         <v>44227</v>
       </c>
       <c r="B216">
@@ -3331,7 +3328,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
+      <c r="A217" s="1">
         <v>44228</v>
       </c>
       <c r="B217">
@@ -3345,7 +3342,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
+      <c r="A218" s="1">
         <v>44229</v>
       </c>
       <c r="B218">
@@ -3359,7 +3356,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
+      <c r="A219" s="1">
         <v>44230</v>
       </c>
       <c r="B219">
@@ -3373,7 +3370,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
+      <c r="A220" s="1">
         <v>44231</v>
       </c>
       <c r="B220">
@@ -3387,7 +3384,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
+      <c r="A221" s="1">
         <v>44232</v>
       </c>
       <c r="B221">
@@ -3401,7 +3398,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+      <c r="A222" s="1">
         <v>44233</v>
       </c>
       <c r="B222">
@@ -3415,7 +3412,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
+      <c r="A223" s="1">
         <v>44234</v>
       </c>
       <c r="B223">
@@ -3429,7 +3426,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
+      <c r="A224" s="1">
         <v>44235</v>
       </c>
       <c r="B224">
@@ -3443,7 +3440,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
+      <c r="A225" s="1">
         <v>44236</v>
       </c>
       <c r="B225">
@@ -3457,7 +3454,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
+      <c r="A226" s="1">
         <v>44237</v>
       </c>
       <c r="B226">
@@ -3471,7 +3468,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
+      <c r="A227" s="1">
         <v>44238</v>
       </c>
       <c r="B227">
@@ -3485,7 +3482,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
+      <c r="A228" s="1">
         <v>44239</v>
       </c>
       <c r="B228">
@@ -3499,7 +3496,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
+      <c r="A229" s="1">
         <v>44240</v>
       </c>
       <c r="B229">
@@ -3513,7 +3510,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+      <c r="A230" s="1">
         <v>44241</v>
       </c>
       <c r="B230">
@@ -3527,7 +3524,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
+      <c r="A231" s="1">
         <v>44242</v>
       </c>
       <c r="B231">
@@ -3541,7 +3538,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
+      <c r="A232" s="1">
         <v>44243</v>
       </c>
       <c r="B232">
@@ -3555,7 +3552,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
+      <c r="A233" s="1">
         <v>44244</v>
       </c>
       <c r="B233">
@@ -3569,7 +3566,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
+      <c r="A234" s="1">
         <v>44245</v>
       </c>
       <c r="B234">
@@ -3583,7 +3580,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
+      <c r="A235" s="1">
         <v>44246</v>
       </c>
       <c r="B235">
@@ -3597,7 +3594,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
+      <c r="A236" s="1">
         <v>44247</v>
       </c>
       <c r="B236">
@@ -3611,7 +3608,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="2">
+      <c r="A237" s="1">
         <v>44248</v>
       </c>
       <c r="B237">
@@ -3625,7 +3622,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+      <c r="A238" s="1">
         <v>44249</v>
       </c>
       <c r="B238">
@@ -3639,7 +3636,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="2">
+      <c r="A239" s="1">
         <v>44250</v>
       </c>
       <c r="B239">
@@ -3653,7 +3650,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="2">
+      <c r="A240" s="1">
         <v>44251</v>
       </c>
       <c r="B240">
@@ -3667,7 +3664,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="2">
+      <c r="A241" s="1">
         <v>44252</v>
       </c>
       <c r="B241">
@@ -3681,7 +3678,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="2">
+      <c r="A242" s="1">
         <v>44253</v>
       </c>
       <c r="B242">
@@ -3695,7 +3692,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="2">
+      <c r="A243" s="1">
         <v>44254</v>
       </c>
       <c r="B243">
@@ -3709,7 +3706,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="2">
+      <c r="A244" s="1">
         <v>44255</v>
       </c>
       <c r="B244">
@@ -3723,7 +3720,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="2">
+      <c r="A245" s="1">
         <v>44256</v>
       </c>
       <c r="B245">
@@ -3737,7 +3734,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="2">
+      <c r="A246" s="1">
         <v>44257</v>
       </c>
       <c r="B246">
@@ -3751,7 +3748,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="2">
+      <c r="A247" s="1">
         <v>44258</v>
       </c>
       <c r="B247">
@@ -3765,7 +3762,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="2">
+      <c r="A248" s="1">
         <v>44259</v>
       </c>
       <c r="B248">
@@ -3779,7 +3776,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="2">
+      <c r="A249" s="1">
         <v>44260</v>
       </c>
       <c r="B249">
@@ -3793,7 +3790,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="2">
+      <c r="A250" s="1">
         <v>44261</v>
       </c>
       <c r="B250">
@@ -3807,7 +3804,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="2">
+      <c r="A251" s="1">
         <v>44262</v>
       </c>
       <c r="B251">
@@ -3821,7 +3818,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
+      <c r="A252" s="1">
         <v>44263</v>
       </c>
       <c r="B252">
@@ -3835,7 +3832,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="2">
+      <c r="A253" s="1">
         <v>44264</v>
       </c>
       <c r="B253">
@@ -3849,7 +3846,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
+      <c r="A254" s="1">
         <v>44265</v>
       </c>
       <c r="B254">
@@ -3863,7 +3860,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="2">
+      <c r="A255" s="1">
         <v>44266</v>
       </c>
       <c r="B255">
@@ -3877,7 +3874,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="2">
+      <c r="A256" s="1">
         <v>44267</v>
       </c>
       <c r="B256">
@@ -3891,7 +3888,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="2">
+      <c r="A257" s="1">
         <v>44268</v>
       </c>
       <c r="B257">
@@ -3905,7 +3902,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="2">
+      <c r="A258" s="1">
         <v>44269</v>
       </c>
       <c r="B258">
@@ -3919,7 +3916,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="2">
+      <c r="A259" s="1">
         <v>44270</v>
       </c>
       <c r="B259">
@@ -3933,7 +3930,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="2">
+      <c r="A260" s="1">
         <v>44271</v>
       </c>
       <c r="B260">
@@ -3947,7 +3944,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
+      <c r="A261" s="1">
         <v>44272</v>
       </c>
       <c r="B261">
@@ -3961,7 +3958,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
+      <c r="A262" s="1">
         <v>44273</v>
       </c>
       <c r="B262">
@@ -3975,7 +3972,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="2">
+      <c r="A263" s="1">
         <v>44274</v>
       </c>
       <c r="B263">
@@ -3989,7 +3986,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="2">
+      <c r="A264" s="1">
         <v>44275</v>
       </c>
       <c r="B264">
@@ -4003,7 +4000,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
+      <c r="A265" s="1">
         <v>44276</v>
       </c>
       <c r="B265">
@@ -4017,7 +4014,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
+      <c r="A266" s="1">
         <v>44277</v>
       </c>
       <c r="B266">
@@ -4031,7 +4028,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="2">
+      <c r="A267" s="1">
         <v>44278</v>
       </c>
       <c r="B267">
@@ -4045,7 +4042,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
+      <c r="A268" s="1">
         <v>44279</v>
       </c>
       <c r="B268">
@@ -4059,7 +4056,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
+      <c r="A269" s="1">
         <v>44280</v>
       </c>
       <c r="B269">
@@ -4073,7 +4070,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
+      <c r="A270" s="1">
         <v>44281</v>
       </c>
       <c r="B270">
@@ -4087,7 +4084,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
+      <c r="A271" s="1">
         <v>44282</v>
       </c>
       <c r="B271">
@@ -4101,7 +4098,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
+      <c r="A272" s="1">
         <v>44283</v>
       </c>
       <c r="B272">
@@ -4115,7 +4112,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
+      <c r="A273" s="1">
         <v>44284</v>
       </c>
       <c r="B273">
@@ -4129,7 +4126,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
+      <c r="A274" s="1">
         <v>44285</v>
       </c>
       <c r="B274">
@@ -4143,7 +4140,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
+      <c r="A275" s="1">
         <v>44286</v>
       </c>
       <c r="B275">
@@ -4157,7 +4154,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
+      <c r="A276" s="1">
         <v>44287</v>
       </c>
       <c r="B276">
@@ -4171,7 +4168,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
+      <c r="A277" s="1">
         <v>44288</v>
       </c>
       <c r="B277">
@@ -4185,7 +4182,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
+      <c r="A278" s="1">
         <v>44289</v>
       </c>
       <c r="B278">
@@ -4199,7 +4196,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="2">
+      <c r="A279" s="1">
         <v>44290</v>
       </c>
       <c r="B279">
@@ -4213,7 +4210,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="2">
+      <c r="A280" s="1">
         <v>44291</v>
       </c>
       <c r="B280">
@@ -4227,7 +4224,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
+      <c r="A281" s="1">
         <v>44292</v>
       </c>
       <c r="B281">
@@ -4241,7 +4238,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="2">
+      <c r="A282" s="1">
         <v>44293</v>
       </c>
       <c r="B282">
@@ -4255,7 +4252,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="2">
+      <c r="A283" s="1">
         <v>44294</v>
       </c>
       <c r="B283">
@@ -4269,7 +4266,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="2">
+      <c r="A284" s="1">
         <v>44295</v>
       </c>
       <c r="B284">
@@ -4283,7 +4280,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="2">
+      <c r="A285" s="1">
         <v>44296</v>
       </c>
       <c r="B285">
@@ -4297,7 +4294,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="2">
+      <c r="A286" s="1">
         <v>44297</v>
       </c>
       <c r="B286">
@@ -4311,7 +4308,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="2">
+      <c r="A287" s="1">
         <v>44298</v>
       </c>
       <c r="B287">
@@ -4325,7 +4322,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="2">
+      <c r="A288" s="1">
         <v>44299</v>
       </c>
       <c r="B288">
@@ -4339,7 +4336,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="2">
+      <c r="A289" s="1">
         <v>44300</v>
       </c>
       <c r="B289">
@@ -4353,7 +4350,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="2">
+      <c r="A290" s="1">
         <v>44301</v>
       </c>
       <c r="B290">
@@ -4367,7 +4364,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="2">
+      <c r="A291" s="1">
         <v>44302</v>
       </c>
       <c r="B291">
@@ -4381,7 +4378,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="2">
+      <c r="A292" s="1">
         <v>44303</v>
       </c>
       <c r="B292">
@@ -4395,7 +4392,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="2">
+      <c r="A293" s="1">
         <v>44304</v>
       </c>
       <c r="B293">
@@ -4409,7 +4406,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="2">
+      <c r="A294" s="1">
         <v>44305</v>
       </c>
       <c r="B294">
@@ -4423,7 +4420,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="2">
+      <c r="A295" s="1">
         <v>44306</v>
       </c>
       <c r="B295">
@@ -4437,7 +4434,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="2">
+      <c r="A296" s="1">
         <v>44307</v>
       </c>
       <c r="B296">
@@ -4451,7 +4448,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="2">
+      <c r="A297" s="1">
         <v>44308</v>
       </c>
       <c r="B297">
@@ -4465,7 +4462,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="2">
+      <c r="A298" s="1">
         <v>44309</v>
       </c>
       <c r="B298">
@@ -4479,7 +4476,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="2">
+      <c r="A299" s="1">
         <v>44310</v>
       </c>
       <c r="B299">
@@ -4493,7 +4490,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="2">
+      <c r="A300" s="1">
         <v>44311</v>
       </c>
       <c r="B300">
@@ -4507,7 +4504,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="2">
+      <c r="A301" s="1">
         <v>44312</v>
       </c>
       <c r="B301">
@@ -4521,7 +4518,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="2">
+      <c r="A302" s="1">
         <v>44313</v>
       </c>
       <c r="B302">
@@ -4535,7 +4532,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="2">
+      <c r="A303" s="1">
         <v>44314</v>
       </c>
       <c r="B303">
@@ -4549,7 +4546,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="2">
+      <c r="A304" s="1">
         <v>44315</v>
       </c>
       <c r="B304">
@@ -4563,7 +4560,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="2">
+      <c r="A305" s="1">
         <v>44316</v>
       </c>
       <c r="B305">
@@ -4577,7 +4574,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="2">
+      <c r="A306" s="1">
         <v>44317</v>
       </c>
       <c r="B306">
@@ -4591,7 +4588,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="2">
+      <c r="A307" s="1">
         <v>44318</v>
       </c>
       <c r="B307">
@@ -4605,7 +4602,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="2">
+      <c r="A308" s="1">
         <v>44319</v>
       </c>
       <c r="B308">
@@ -4619,7 +4616,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="2">
+      <c r="A309" s="1">
         <v>44320</v>
       </c>
       <c r="B309">
@@ -4633,7 +4630,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="2">
+      <c r="A310" s="1">
         <v>44321</v>
       </c>
       <c r="B310">
@@ -4647,7 +4644,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="2">
+      <c r="A311" s="1">
         <v>44322</v>
       </c>
       <c r="B311">
@@ -4661,7 +4658,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="2">
+      <c r="A312" s="1">
         <v>44323</v>
       </c>
       <c r="B312">
@@ -4675,7 +4672,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="2">
+      <c r="A313" s="1">
         <v>44324</v>
       </c>
       <c r="B313">
@@ -4689,7 +4686,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="2">
+      <c r="A314" s="1">
         <v>44325</v>
       </c>
       <c r="B314">
@@ -4703,7 +4700,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="2">
+      <c r="A315" s="1">
         <v>44326</v>
       </c>
       <c r="B315">
@@ -4717,7 +4714,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="2">
+      <c r="A316" s="1">
         <v>44327</v>
       </c>
       <c r="B316">
@@ -4731,7 +4728,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="2">
+      <c r="A317" s="1">
         <v>44328</v>
       </c>
       <c r="B317">
@@ -4745,7 +4742,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="2">
+      <c r="A318" s="1">
         <v>44329</v>
       </c>
       <c r="B318">
@@ -4759,7 +4756,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="2">
+      <c r="A319" s="1">
         <v>44330</v>
       </c>
       <c r="B319">
@@ -4773,7 +4770,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="2">
+      <c r="A320" s="1">
         <v>44331</v>
       </c>
       <c r="B320">
@@ -4787,7 +4784,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="2">
+      <c r="A321" s="1">
         <v>44332</v>
       </c>
       <c r="B321">
@@ -4801,7 +4798,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="2">
+      <c r="A322" s="1">
         <v>44333</v>
       </c>
       <c r="B322">
@@ -4815,7 +4812,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="2">
+      <c r="A323" s="1">
         <v>44334</v>
       </c>
       <c r="B323">
@@ -4829,7 +4826,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="2">
+      <c r="A324" s="1">
         <v>44335</v>
       </c>
       <c r="B324">
@@ -4843,7 +4840,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="2">
+      <c r="A325" s="1">
         <v>44336</v>
       </c>
       <c r="B325">
@@ -4857,7 +4854,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
+      <c r="A326" s="1">
         <v>44337</v>
       </c>
       <c r="B326">
@@ -4871,7 +4868,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="2">
+      <c r="A327" s="1">
         <v>44338</v>
       </c>
       <c r="B327">
@@ -4885,7 +4882,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="2">
+      <c r="A328" s="1">
         <v>44339</v>
       </c>
       <c r="B328">
@@ -4899,7 +4896,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="2">
+      <c r="A329" s="1">
         <v>44340</v>
       </c>
       <c r="B329">
@@ -4913,7 +4910,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="2">
+      <c r="A330" s="1">
         <v>44341</v>
       </c>
       <c r="B330">
@@ -4927,7 +4924,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="2">
+      <c r="A331" s="1">
         <v>44342</v>
       </c>
       <c r="B331">
@@ -4941,7 +4938,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="2">
+      <c r="A332" s="1">
         <v>44343</v>
       </c>
       <c r="B332">
@@ -4955,7 +4952,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="2">
+      <c r="A333" s="1">
         <v>44344</v>
       </c>
       <c r="B333">
@@ -4969,7 +4966,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="2">
+      <c r="A334" s="1">
         <v>44345</v>
       </c>
       <c r="B334">
@@ -4983,7 +4980,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="2">
+      <c r="A335" s="1">
         <v>44346</v>
       </c>
       <c r="B335">
@@ -5000,7 +4997,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="2">
+      <c r="A336" s="1">
         <v>44347</v>
       </c>
       <c r="B336">
@@ -5017,7 +5014,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="2">
+      <c r="A337" s="1">
         <v>44348</v>
       </c>
       <c r="B337">
@@ -5034,7 +5031,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="2">
+      <c r="A338" s="1">
         <v>44349</v>
       </c>
       <c r="B338">
@@ -5051,7 +5048,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="2">
+      <c r="A339" s="1">
         <v>44350</v>
       </c>
       <c r="B339">
@@ -5068,7 +5065,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="2">
+      <c r="A340" s="1">
         <v>44351</v>
       </c>
       <c r="B340">
@@ -5085,7 +5082,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="2">
+      <c r="A341" s="1">
         <v>44352</v>
       </c>
       <c r="B341">
@@ -5102,7 +5099,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="2">
+      <c r="A342" s="1">
         <v>44353</v>
       </c>
       <c r="B342">
@@ -5119,7 +5116,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="2">
+      <c r="A343" s="1">
         <v>44354</v>
       </c>
       <c r="B343">
@@ -5136,7 +5133,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="2">
+      <c r="A344" s="1">
         <v>44355</v>
       </c>
       <c r="B344">
@@ -5153,7 +5150,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="2">
+      <c r="A345" s="1">
         <v>44356</v>
       </c>
       <c r="B345">
@@ -5170,7 +5167,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="2">
+      <c r="A346" s="1">
         <v>44357</v>
       </c>
       <c r="B346">
@@ -5187,7 +5184,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="2">
+      <c r="A347" s="1">
         <v>44358</v>
       </c>
       <c r="B347">
@@ -5204,7 +5201,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="2">
+      <c r="A348" s="1">
         <v>44359</v>
       </c>
       <c r="B348">
@@ -5221,7 +5218,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="2">
+      <c r="A349" s="1">
         <v>44360</v>
       </c>
       <c r="B349">
@@ -5238,7 +5235,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="2">
+      <c r="A350" s="1">
         <v>44361</v>
       </c>
       <c r="B350">
@@ -5255,7 +5252,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="2">
+      <c r="A351" s="1">
         <v>44362</v>
       </c>
       <c r="B351">
@@ -5272,7 +5269,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="2">
+      <c r="A352" s="1">
         <v>44363</v>
       </c>
       <c r="B352">
@@ -5289,7 +5286,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="2">
+      <c r="A353" s="1">
         <v>44364</v>
       </c>
       <c r="B353">
@@ -5306,7 +5303,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="2">
+      <c r="A354" s="1">
         <v>44365</v>
       </c>
       <c r="B354">
@@ -5323,7 +5320,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="2">
+      <c r="A355" s="1">
         <v>44366</v>
       </c>
       <c r="B355">
@@ -5340,7 +5337,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="2">
+      <c r="A356" s="1">
         <v>44367</v>
       </c>
       <c r="B356">
@@ -5357,7 +5354,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="2">
+      <c r="A357" s="1">
         <v>44368</v>
       </c>
       <c r="B357">
@@ -5374,7 +5371,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+      <c r="A358" s="1">
         <v>44369</v>
       </c>
       <c r="B358">
@@ -5391,7 +5388,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="2">
+      <c r="A359" s="1">
         <v>44370</v>
       </c>
       <c r="B359">
@@ -5408,7 +5405,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="2">
+      <c r="A360" s="1">
         <v>44371</v>
       </c>
       <c r="B360">
@@ -5425,7 +5422,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="2">
+      <c r="A361" s="1">
         <v>44372</v>
       </c>
       <c r="B361">
@@ -5442,7 +5439,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="2">
+      <c r="A362" s="1">
         <v>44373</v>
       </c>
       <c r="B362">
@@ -5459,7 +5456,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="2">
+      <c r="A363" s="1">
         <v>44374</v>
       </c>
       <c r="B363">
@@ -5476,7 +5473,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="2">
+      <c r="A364" s="1">
         <v>44375</v>
       </c>
       <c r="B364">
@@ -5493,7 +5490,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="2">
+      <c r="A365" s="1">
         <v>44376</v>
       </c>
       <c r="B365">
@@ -5510,7 +5507,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="2">
+      <c r="A366" s="1">
         <v>44377</v>
       </c>
       <c r="B366">
@@ -5527,7 +5524,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
+      <c r="A367" s="1">
         <v>44378</v>
       </c>
       <c r="B367">
@@ -5544,7 +5541,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="2">
+      <c r="A368" s="1">
         <v>44379</v>
       </c>
       <c r="B368">
@@ -5561,7 +5558,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="2">
+      <c r="A369" s="1">
         <v>44380</v>
       </c>
       <c r="B369">
@@ -5578,7 +5575,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="2">
+      <c r="A370" s="1">
         <v>44381</v>
       </c>
       <c r="B370">
@@ -5595,7 +5592,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="2">
+      <c r="A371" s="1">
         <v>44382</v>
       </c>
       <c r="B371">
@@ -5612,7 +5609,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="2">
+      <c r="A372" s="1">
         <v>44383</v>
       </c>
       <c r="B372">
@@ -5629,7 +5626,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="2">
+      <c r="A373" s="1">
         <v>44384</v>
       </c>
       <c r="B373">
@@ -5646,7 +5643,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="2">
+      <c r="A374" s="1">
         <v>44385</v>
       </c>
       <c r="B374">
@@ -5663,7 +5660,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="2">
+      <c r="A375" s="1">
         <v>44386</v>
       </c>
       <c r="B375">
@@ -5680,7 +5677,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="2">
+      <c r="A376" s="1">
         <v>44387</v>
       </c>
       <c r="B376">
@@ -5697,7 +5694,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" s="2">
+      <c r="A377" s="1">
         <v>44388</v>
       </c>
       <c r="B377">
@@ -5714,7 +5711,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="2">
+      <c r="A378" s="1">
         <v>44389</v>
       </c>
       <c r="B378">
@@ -5731,7 +5728,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="2">
+      <c r="A379" s="1">
         <v>44390</v>
       </c>
       <c r="B379">
@@ -5748,7 +5745,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="2">
+      <c r="A380" s="1">
         <v>44391</v>
       </c>
       <c r="B380">
@@ -5765,7 +5762,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="2">
+      <c r="A381" s="1">
         <v>44392</v>
       </c>
       <c r="B381">
@@ -5782,7 +5779,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="2">
+      <c r="A382" s="1">
         <v>44393</v>
       </c>
       <c r="B382">
@@ -5799,7 +5796,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="2">
+      <c r="A383" s="1">
         <v>44394</v>
       </c>
       <c r="B383">
@@ -5813,6 +5810,125 @@
       </c>
       <c r="E383">
         <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="D384">
+        <v>0.18907563025210083</v>
+      </c>
+      <c r="E384">
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="D385">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E385">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="D386">
+        <v>0.15126050420168066</v>
+      </c>
+      <c r="E386">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>0.2288</v>
+      </c>
+      <c r="D387">
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="E387">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>0.2336</v>
+      </c>
+      <c r="D388">
+        <v>0.15546218487394958</v>
+      </c>
+      <c r="E388">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>0.224</v>
+      </c>
+      <c r="D389">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="E389">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0.224</v>
+      </c>
+      <c r="D390">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="E390">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40B9A3-65C8-44FA-90E0-BB492FEB1B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDED40-4721-49CB-9EF7-9A8E1F0A9C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="3864" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19872" yWindow="696" windowWidth="3864" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390:A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5931,6 +5931,125 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="D391">
+        <v>0.15261044176706828</v>
+      </c>
+      <c r="E391">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="D392">
+        <v>0.15662650602409639</v>
+      </c>
+      <c r="E392">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>0.21069182389937108</v>
+      </c>
+      <c r="D393">
+        <v>0.15261044176706828</v>
+      </c>
+      <c r="E393">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>0.21069182389937108</v>
+      </c>
+      <c r="D394">
+        <v>0.15261044176706828</v>
+      </c>
+      <c r="E394">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>0.21069182389937108</v>
+      </c>
+      <c r="D395">
+        <v>0.15261044176706828</v>
+      </c>
+      <c r="E395">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="D396">
+        <v>0.14859437751004015</v>
+      </c>
+      <c r="E396">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="D397">
+        <v>0.14859437751004015</v>
+      </c>
+      <c r="E397">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDED40-4721-49CB-9EF7-9A8E1F0A9C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC83CE-6178-45EA-B64C-E26755E5F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19872" yWindow="696" windowWidth="3864" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16236" yWindow="696" windowWidth="7500" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390:A397"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6050,6 +6050,125 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="D398">
+        <v>0.14859437751004015</v>
+      </c>
+      <c r="E398">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>0.20650406504065041</v>
+      </c>
+      <c r="D399">
+        <v>0.128</v>
+      </c>
+      <c r="E399">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>0.20650406504065041</v>
+      </c>
+      <c r="D400">
+        <v>0.128</v>
+      </c>
+      <c r="E400">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>0.21788617886178863</v>
+      </c>
+      <c r="D401">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E401">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B402">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C402">
+        <v>0.1664050235478807</v>
+      </c>
+      <c r="D402">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E402">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B403">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C403">
+        <v>0.1695447409733124</v>
+      </c>
+      <c r="D403">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E403">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B404">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C404">
+        <v>0.1695447409733124</v>
+      </c>
+      <c r="D404">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E404">
+        <v>0.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC83CE-6178-45EA-B64C-E26755E5F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F94AD5-0D98-4F14-A072-1916834843E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16236" yWindow="696" windowWidth="7500" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,11 +385,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E404"/>
+  <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6169,6 +6167,125 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B405">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C405">
+        <v>0.16797488226059654</v>
+      </c>
+      <c r="D405">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E405">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B406">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C406">
+        <v>0.18681318681318682</v>
+      </c>
+      <c r="D406">
+        <v>0.128</v>
+      </c>
+      <c r="E406">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>0.19466248037676609</v>
+      </c>
+      <c r="D407">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E407">
+        <v>0.73913043478260865</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="D408">
+        <v>0.152</v>
+      </c>
+      <c r="E408">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="D409">
+        <v>0.156</v>
+      </c>
+      <c r="E409">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>0.18053375196232338</v>
+      </c>
+      <c r="D410">
+        <v>0.124</v>
+      </c>
+      <c r="E410">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>0.18053375196232338</v>
+      </c>
+      <c r="D411">
+        <v>0.124</v>
+      </c>
+      <c r="E411">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F94AD5-0D98-4F14-A072-1916834843E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046A95F1-D688-4936-8554-954226C29344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,9 +385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E411"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="D418" sqref="D418"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6286,6 +6288,125 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>0.18053375196232338</v>
+      </c>
+      <c r="D412">
+        <v>0.124</v>
+      </c>
+      <c r="E412">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="D413">
+        <v>0.124</v>
+      </c>
+      <c r="E413">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B414">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C414">
+        <v>0.16797488226059654</v>
+      </c>
+      <c r="D414">
+        <v>0.104</v>
+      </c>
+      <c r="E414">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B415">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C415">
+        <v>0.15541601255886969</v>
+      </c>
+      <c r="D415">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E415">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B416">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C416">
+        <v>0.15070643642072212</v>
+      </c>
+      <c r="D416">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E416">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>0.16483516483516483</v>
+      </c>
+      <c r="D417">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E417">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0.16483516483516483</v>
+      </c>
+      <c r="D418">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E418">
+        <v>0.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046A95F1-D688-4936-8554-954226C29344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD00710-32F8-477A-971A-1C35AA436B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="D418" sqref="D418"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:A425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6407,6 +6428,125 @@
         <v>0.64</v>
       </c>
     </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>0.16483516483516483</v>
+      </c>
+      <c r="D419">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E419">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>0.1650943396226415</v>
+      </c>
+      <c r="D420">
+        <v>0.10843373493975904</v>
+      </c>
+      <c r="E420">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B421">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C421">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="D421">
+        <v>0.11244979919678715</v>
+      </c>
+      <c r="E421">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B422">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C422">
+        <v>0.15748031496062992</v>
+      </c>
+      <c r="D422">
+        <v>0.11693548387096774</v>
+      </c>
+      <c r="E422">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B423">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C423">
+        <v>0.17637795275590551</v>
+      </c>
+      <c r="D423">
+        <v>0.10887096774193548</v>
+      </c>
+      <c r="E423">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B424">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C424">
+        <v>0.17535545023696683</v>
+      </c>
+      <c r="D424">
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="E424">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B425">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C425">
+        <v>0.17535545023696683</v>
+      </c>
+      <c r="D425">
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="E425">
+        <v>0.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD00710-32F8-477A-971A-1C35AA436B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADF2AC-EFDE-43B5-AE09-F6684DFC8779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11640" yWindow="4776" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -109,28 +109,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -406,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:A425"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6547,6 +6526,125 @@
         <v>0.36</v>
       </c>
     </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B426">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C426">
+        <v>0.17535545023696683</v>
+      </c>
+      <c r="D426">
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="E426">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B427">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C427">
+        <v>0.17535545023696683</v>
+      </c>
+      <c r="D427">
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="E427">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B428">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C428">
+        <v>0.1719242902208202</v>
+      </c>
+      <c r="D428">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="E428">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B429">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C429">
+        <v>0.15165876777251186</v>
+      </c>
+      <c r="D429">
+        <v>9.3495934959349589E-2</v>
+      </c>
+      <c r="E429">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B430">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C430">
+        <v>0.15311004784688995</v>
+      </c>
+      <c r="D430">
+        <v>9.583333333333334E-2</v>
+      </c>
+      <c r="E430">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B431">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C431">
+        <v>0.13397129186602871</v>
+      </c>
+      <c r="D431">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="E431">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B432">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C432">
+        <v>0.13397129186602871</v>
+      </c>
+      <c r="D432">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="E432">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADF2AC-EFDE-43B5-AE09-F6684DFC8779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588FB2A-5261-463A-8466-C165F29C5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="4776" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="3096" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E432"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:A432"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6645,6 +6645,125 @@
         <v>0.32</v>
       </c>
     </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B433">
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="C433">
+        <v>0.13397129186602871</v>
+      </c>
+      <c r="D433">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="E433">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B434">
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="C434">
+        <v>0.15238095238095239</v>
+      </c>
+      <c r="D434">
+        <v>0.11934156378600823</v>
+      </c>
+      <c r="E434">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B435">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C435">
+        <v>0.14330708661417324</v>
+      </c>
+      <c r="D435">
+        <v>0.11693548387096774</v>
+      </c>
+      <c r="E435">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B436">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C436">
+        <v>0.15830721003134796</v>
+      </c>
+      <c r="D436">
+        <v>0.11553784860557768</v>
+      </c>
+      <c r="E436">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B437">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C437">
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="D437">
+        <v>0.108</v>
+      </c>
+      <c r="E437">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B438">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C438">
+        <v>0.14599686028257458</v>
+      </c>
+      <c r="D438">
+        <v>0.12</v>
+      </c>
+      <c r="E438">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B439">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C439">
+        <v>0.14599686028257458</v>
+      </c>
+      <c r="D439">
+        <v>0.12</v>
+      </c>
+      <c r="E439">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588FB2A-5261-463A-8466-C165F29C5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB3662-A145-495D-8B28-05FCF336606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3096" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11676" yWindow="1920" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:A439"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6764,6 +6764,125 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B440">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C440">
+        <v>0.14599686028257458</v>
+      </c>
+      <c r="D440">
+        <v>0.12</v>
+      </c>
+      <c r="E440">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B441">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="C441">
+        <v>0.15203761755485892</v>
+      </c>
+      <c r="D441">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E441">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B442">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="C442">
+        <v>0.15203761755485892</v>
+      </c>
+      <c r="D442">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E442">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B443">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="C443">
+        <v>0.15203761755485892</v>
+      </c>
+      <c r="D443">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E443">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B444">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="C444">
+        <v>0.15203761755485892</v>
+      </c>
+      <c r="D444">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E444">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B445">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C445">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D445">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="E445">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B446">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C446">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D446">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="E446">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB3662-A145-495D-8B28-05FCF336606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE18D25-2CE6-43A7-AA26-9D84D36AE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11676" yWindow="1920" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14868" yWindow="2088" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -385,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E446"/>
+  <dimension ref="A1:E453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="D446" sqref="D446"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +416,7 @@
       <c r="A2" s="1">
         <v>44013</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="C2">
@@ -425,7 +427,7 @@
       <c r="A3" s="1">
         <v>44014</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="C3">
@@ -436,7 +438,7 @@
       <c r="A4" s="1">
         <v>44015</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="C4">
@@ -447,7 +449,7 @@
       <c r="A5" s="1">
         <v>44016</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="C5">
@@ -458,7 +460,7 @@
       <c r="A6" s="1">
         <v>44017</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="C6">
@@ -469,7 +471,7 @@
       <c r="A7" s="1">
         <v>44018</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.65217391304347827</v>
       </c>
       <c r="C7">
@@ -480,7 +482,7 @@
       <c r="A8" s="1">
         <v>44019</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.60869565217391308</v>
       </c>
       <c r="C8">
@@ -491,7 +493,7 @@
       <c r="A9" s="1">
         <v>44020</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.57692307692307687</v>
       </c>
       <c r="C9">
@@ -502,7 +504,7 @@
       <c r="A10" s="1">
         <v>44021</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.53846153846153844</v>
       </c>
       <c r="C10">
@@ -513,7 +515,7 @@
       <c r="A11" s="1">
         <v>44022</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.57692307692307687</v>
       </c>
       <c r="C11">
@@ -524,7 +526,7 @@
       <c r="A12" s="1">
         <v>44023</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.80769230769230771</v>
       </c>
       <c r="C12">
@@ -535,7 +537,7 @@
       <c r="A13" s="1">
         <v>44024</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.76923076923076927</v>
       </c>
       <c r="C13">
@@ -546,7 +548,7 @@
       <c r="A14" s="1">
         <v>44025</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.80769230769230771</v>
       </c>
       <c r="C14">
@@ -557,7 +559,7 @@
       <c r="A15" s="1">
         <v>44026</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.80769230769230771</v>
       </c>
       <c r="C15">
@@ -568,7 +570,7 @@
       <c r="A16" s="1">
         <v>44027</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.76923076923076927</v>
       </c>
       <c r="C16">
@@ -579,7 +581,7 @@
       <c r="A17" s="1">
         <v>44028</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.76923076923076927</v>
       </c>
       <c r="C17">
@@ -590,7 +592,7 @@
       <c r="A18" s="1">
         <v>44029</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.73076923076923073</v>
       </c>
       <c r="C18">
@@ -601,7 +603,7 @@
       <c r="A19" s="1">
         <v>44030</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.8</v>
       </c>
       <c r="C19">
@@ -612,7 +614,7 @@
       <c r="A20" s="1">
         <v>44031</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.76</v>
       </c>
       <c r="C20">
@@ -623,7 +625,7 @@
       <c r="A21" s="1">
         <v>44032</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="C21">
@@ -634,7 +636,7 @@
       <c r="A22" s="1">
         <v>44033</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.875</v>
       </c>
       <c r="C22">
@@ -645,7 +647,7 @@
       <c r="A23" s="1">
         <v>44034</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.875</v>
       </c>
       <c r="C23">
@@ -656,7 +658,7 @@
       <c r="A24" s="1">
         <v>44035</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.84</v>
       </c>
       <c r="C24">
@@ -667,7 +669,7 @@
       <c r="A25" s="1">
         <v>44036</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.84</v>
       </c>
       <c r="C25">
@@ -678,7 +680,7 @@
       <c r="A26" s="1">
         <v>44037</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0.92</v>
       </c>
       <c r="C26">
@@ -689,7 +691,7 @@
       <c r="A27" s="1">
         <v>44038</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0.88</v>
       </c>
       <c r="C27">
@@ -700,7 +702,7 @@
       <c r="A28" s="1">
         <v>44039</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.88</v>
       </c>
       <c r="C28">
@@ -711,7 +713,7 @@
       <c r="A29" s="1">
         <v>44040</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.92</v>
       </c>
       <c r="C29">
@@ -722,7 +724,7 @@
       <c r="A30" s="1">
         <v>44041</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0.92</v>
       </c>
       <c r="C30">
@@ -733,7 +735,7 @@
       <c r="A31" s="1">
         <v>44042</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.92</v>
       </c>
       <c r="C31">
@@ -744,7 +746,7 @@
       <c r="A32" s="1">
         <v>44043</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0.96</v>
       </c>
       <c r="C32">
@@ -755,7 +757,7 @@
       <c r="A33" s="1">
         <v>44044</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0.96</v>
       </c>
       <c r="C33">
@@ -769,7 +771,7 @@
       <c r="A34" s="1">
         <v>44045</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0.96</v>
       </c>
       <c r="C34">
@@ -783,7 +785,7 @@
       <c r="A35" s="1">
         <v>44046</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.96</v>
       </c>
       <c r="C35">
@@ -797,7 +799,7 @@
       <c r="A36" s="1">
         <v>44047</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0.88</v>
       </c>
       <c r="C36">
@@ -811,7 +813,7 @@
       <c r="A37" s="1">
         <v>44048</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.96</v>
       </c>
       <c r="C37">
@@ -825,7 +827,7 @@
       <c r="A38" s="1">
         <v>44049</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0.96</v>
       </c>
       <c r="C38">
@@ -839,7 +841,7 @@
       <c r="A39" s="1">
         <v>44050</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0.95652173913043481</v>
       </c>
       <c r="C39">
@@ -853,7 +855,7 @@
       <c r="A40" s="1">
         <v>44051</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0.95652173913043481</v>
       </c>
       <c r="C40">
@@ -867,7 +869,7 @@
       <c r="A41" s="1">
         <v>44052</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0.95652173913043481</v>
       </c>
       <c r="C41">
@@ -881,7 +883,7 @@
       <c r="A42" s="1">
         <v>44053</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C42">
@@ -895,7 +897,7 @@
       <c r="A43" s="1">
         <v>44054</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C43">
@@ -909,7 +911,7 @@
       <c r="A44" s="1">
         <v>44055</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C44">
@@ -923,7 +925,7 @@
       <c r="A45" s="1">
         <v>44056</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C45">
@@ -937,7 +939,7 @@
       <c r="A46" s="1">
         <v>44057</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C46">
@@ -951,7 +953,7 @@
       <c r="A47" s="1">
         <v>44058</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C47">
@@ -965,7 +967,7 @@
       <c r="A48" s="1">
         <v>44059</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C48">
@@ -979,7 +981,7 @@
       <c r="A49" s="1">
         <v>44060</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C49">
@@ -993,7 +995,7 @@
       <c r="A50" s="1">
         <v>44061</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C50">
@@ -1007,7 +1009,7 @@
       <c r="A51" s="1">
         <v>44062</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C51">
@@ -1021,7 +1023,7 @@
       <c r="A52" s="1">
         <v>44063</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C52">
@@ -1035,7 +1037,7 @@
       <c r="A53" s="1">
         <v>44064</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C53">
@@ -1049,7 +1051,7 @@
       <c r="A54" s="1">
         <v>44065</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54">
@@ -1063,7 +1065,7 @@
       <c r="A55" s="1">
         <v>44066</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55">
@@ -1077,7 +1079,7 @@
       <c r="A56" s="1">
         <v>44067</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56">
@@ -1091,7 +1093,7 @@
       <c r="A57" s="1">
         <v>44068</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
       <c r="C57">
@@ -1105,7 +1107,7 @@
       <c r="A58" s="1">
         <v>44069</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C58">
@@ -1119,7 +1121,7 @@
       <c r="A59" s="1">
         <v>44070</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C59">
@@ -1133,7 +1135,7 @@
       <c r="A60" s="1">
         <v>44071</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1.0434782608695652</v>
       </c>
       <c r="C60">
@@ -1147,7 +1149,7 @@
       <c r="A61" s="1">
         <v>44072</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>1.0869565217391304</v>
       </c>
       <c r="C61">
@@ -1161,7 +1163,7 @@
       <c r="A62" s="1">
         <v>44073</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>1.0869565217391304</v>
       </c>
       <c r="C62">
@@ -1175,7 +1177,7 @@
       <c r="A63" s="1">
         <v>44074</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>1.0416666666666667</v>
       </c>
       <c r="C63">
@@ -1189,7 +1191,7 @@
       <c r="A64" s="1">
         <v>44075</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>1.0416666666666667</v>
       </c>
       <c r="C64">
@@ -1203,7 +1205,7 @@
       <c r="A65" s="1">
         <v>44076</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>1</v>
       </c>
       <c r="C65">
@@ -1217,7 +1219,7 @@
       <c r="A66" s="1">
         <v>44077</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66">
@@ -1231,7 +1233,7 @@
       <c r="A67" s="1">
         <v>44078</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67">
@@ -1245,7 +1247,7 @@
       <c r="A68" s="1">
         <v>44079</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>0.96</v>
       </c>
       <c r="C68">
@@ -1259,7 +1261,7 @@
       <c r="A69" s="1">
         <v>44080</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>0.96</v>
       </c>
       <c r="C69">
@@ -1273,7 +1275,7 @@
       <c r="A70" s="1">
         <v>44081</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>0.96</v>
       </c>
       <c r="C70">
@@ -1287,7 +1289,7 @@
       <c r="A71" s="1">
         <v>44082</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>0.96</v>
       </c>
       <c r="C71">
@@ -1301,7 +1303,7 @@
       <c r="A72" s="1">
         <v>44083</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>1.037037037037037</v>
       </c>
       <c r="C72">
@@ -1315,7 +1317,7 @@
       <c r="A73" s="1">
         <v>44084</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>0.96296296296296291</v>
       </c>
       <c r="C73">
@@ -1329,7 +1331,7 @@
       <c r="A74" s="1">
         <v>44085</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>0.92592592592592593</v>
       </c>
       <c r="C74">
@@ -1343,7 +1345,7 @@
       <c r="A75" s="1">
         <v>44086</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>1</v>
       </c>
       <c r="C75">
@@ -1357,7 +1359,7 @@
       <c r="A76" s="1">
         <v>44087</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
       <c r="C76">
@@ -1371,7 +1373,7 @@
       <c r="A77" s="1">
         <v>44088</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
       <c r="C77">
@@ -1385,7 +1387,7 @@
       <c r="A78" s="1">
         <v>44089</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>1.037037037037037</v>
       </c>
       <c r="C78">
@@ -1399,7 +1401,7 @@
       <c r="A79" s="1">
         <v>44090</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>1</v>
       </c>
       <c r="C79">
@@ -1413,7 +1415,7 @@
       <c r="A80" s="1">
         <v>44091</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>1.037037037037037</v>
       </c>
       <c r="C80">
@@ -1427,7 +1429,7 @@
       <c r="A81" s="1">
         <v>44092</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1.037037037037037</v>
       </c>
       <c r="C81">
@@ -1441,7 +1443,7 @@
       <c r="A82" s="1">
         <v>44093</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>0.96296296296296291</v>
       </c>
       <c r="C82">
@@ -1455,7 +1457,7 @@
       <c r="A83" s="1">
         <v>44094</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>0.96296296296296291</v>
       </c>
       <c r="C83">
@@ -1469,7 +1471,7 @@
       <c r="A84" s="1">
         <v>44095</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>0.92592592592592593</v>
       </c>
       <c r="C84">
@@ -1483,7 +1485,7 @@
       <c r="A85" s="1">
         <v>44096</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="C85">
@@ -1497,7 +1499,7 @@
       <c r="A86" s="1">
         <v>44097</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="C86">
@@ -1511,7 +1513,7 @@
       <c r="A87" s="1">
         <v>44098</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C87">
@@ -1525,7 +1527,7 @@
       <c r="A88" s="1">
         <v>44099</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C88">
@@ -1539,7 +1541,7 @@
       <c r="A89" s="1">
         <v>44100</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C89">
@@ -1553,7 +1555,7 @@
       <c r="A90" s="1">
         <v>44101</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C90">
@@ -1567,7 +1569,7 @@
       <c r="A91" s="1">
         <v>44102</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C91">
@@ -1581,7 +1583,7 @@
       <c r="A92" s="1">
         <v>44103</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C92">
@@ -1595,7 +1597,7 @@
       <c r="A93" s="1">
         <v>44104</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C93">
@@ -1609,7 +1611,7 @@
       <c r="A94" s="1">
         <v>44105</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C94">
@@ -1623,7 +1625,7 @@
       <c r="A95" s="1">
         <v>44106</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C95">
@@ -1637,7 +1639,7 @@
       <c r="A96" s="1">
         <v>44107</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C96">
@@ -1651,7 +1653,7 @@
       <c r="A97" s="1">
         <v>44108</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C97">
@@ -1665,7 +1667,7 @@
       <c r="A98" s="1">
         <v>44109</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C98">
@@ -1679,7 +1681,7 @@
       <c r="A99" s="1">
         <v>44110</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C99">
@@ -1693,7 +1695,7 @@
       <c r="A100" s="1">
         <v>44111</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>0.88235294117647056</v>
       </c>
       <c r="C100">
@@ -1707,7 +1709,7 @@
       <c r="A101" s="1">
         <v>44112</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>0.94117647058823528</v>
       </c>
       <c r="C101">
@@ -1721,7 +1723,7 @@
       <c r="A102" s="1">
         <v>44113</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>0.88235294117647056</v>
       </c>
       <c r="C102">
@@ -1735,7 +1737,7 @@
       <c r="A103" s="1">
         <v>44114</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>0.8529411764705882</v>
       </c>
       <c r="C103">
@@ -1749,7 +1751,7 @@
       <c r="A104" s="1">
         <v>44115</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>0.8529411764705882</v>
       </c>
       <c r="C104">
@@ -1763,7 +1765,7 @@
       <c r="A105" s="1">
         <v>44116</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>0.8529411764705882</v>
       </c>
       <c r="C105">
@@ -1777,7 +1779,7 @@
       <c r="A106" s="1">
         <v>44117</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>0.91176470588235292</v>
       </c>
       <c r="C106">
@@ -1791,7 +1793,7 @@
       <c r="A107" s="1">
         <v>44118</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>0.88235294117647056</v>
       </c>
       <c r="C107">
@@ -1805,7 +1807,7 @@
       <c r="A108" s="1">
         <v>44119</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>0.79411764705882348</v>
       </c>
       <c r="C108">
@@ -1819,7 +1821,7 @@
       <c r="A109" s="1">
         <v>44120</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>0.8529411764705882</v>
       </c>
       <c r="C109">
@@ -1833,7 +1835,7 @@
       <c r="A110" s="1">
         <v>44121</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>0.88235294117647056</v>
       </c>
       <c r="C110">
@@ -1847,7 +1849,7 @@
       <c r="A111" s="1">
         <v>44122</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>0.88235294117647056</v>
       </c>
       <c r="C111">
@@ -1861,7 +1863,7 @@
       <c r="A112" s="1">
         <v>44123</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>0.84210526315789469</v>
       </c>
       <c r="C112">
@@ -1875,7 +1877,7 @@
       <c r="A113" s="1">
         <v>44124</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>0.84210526315789469</v>
       </c>
       <c r="C113">
@@ -1889,7 +1891,7 @@
       <c r="A114" s="1">
         <v>44125</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>0.78947368421052633</v>
       </c>
       <c r="C114">
@@ -1903,7 +1905,7 @@
       <c r="A115" s="1">
         <v>44126</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>0.75</v>
       </c>
       <c r="C115">
@@ -1917,7 +1919,7 @@
       <c r="A116" s="1">
         <v>44127</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>0.75</v>
       </c>
       <c r="C116">
@@ -1931,7 +1933,7 @@
       <c r="A117" s="1">
         <v>44128</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>0.75</v>
       </c>
       <c r="C117">
@@ -1945,7 +1947,7 @@
       <c r="A118" s="1">
         <v>44129</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>0.6428571428571429</v>
       </c>
       <c r="C118">
@@ -1959,7 +1961,7 @@
       <c r="A119" s="1">
         <v>44130</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>0.6428571428571429</v>
       </c>
       <c r="C119">
@@ -1973,7 +1975,7 @@
       <c r="A120" s="1">
         <v>44131</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>0.6071428571428571</v>
       </c>
       <c r="C120">
@@ -1987,7 +1989,7 @@
       <c r="A121" s="1">
         <v>44132</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>0.5</v>
       </c>
       <c r="C121">
@@ -2001,7 +2003,7 @@
       <c r="A122" s="1">
         <v>44133</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>0.51851851851851849</v>
       </c>
       <c r="C122">
@@ -2015,7 +2017,7 @@
       <c r="A123" s="1">
         <v>44134</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C123">
@@ -2029,7 +2031,7 @@
       <c r="A124" s="1">
         <v>44135</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C124">
@@ -2043,7 +2045,7 @@
       <c r="A125" s="1">
         <v>44136</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C125">
@@ -2057,7 +2059,7 @@
       <c r="A126" s="1">
         <v>44137</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C126">
@@ -2071,7 +2073,7 @@
       <c r="A127" s="1">
         <v>44138</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="C127">
@@ -2085,7 +2087,7 @@
       <c r="A128" s="1">
         <v>44139</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>0.51851851851851849</v>
       </c>
       <c r="C128">
@@ -2099,7 +2101,7 @@
       <c r="A129" s="1">
         <v>44140</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>0.51851851851851849</v>
       </c>
       <c r="C129">
@@ -2113,7 +2115,7 @@
       <c r="A130" s="1">
         <v>44141</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>0.51851851851851849</v>
       </c>
       <c r="C130">
@@ -2127,7 +2129,7 @@
       <c r="A131" s="1">
         <v>44142</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="C131">
@@ -2141,7 +2143,7 @@
       <c r="A132" s="1">
         <v>44143</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="C132">
@@ -2155,7 +2157,7 @@
       <c r="A133" s="1">
         <v>44144</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C133">
@@ -2169,7 +2171,7 @@
       <c r="A134" s="1">
         <v>44145</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>0.59259259259259256</v>
       </c>
       <c r="C134">
@@ -2183,7 +2185,7 @@
       <c r="A135" s="1">
         <v>44146</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C135">
@@ -2197,7 +2199,7 @@
       <c r="A136" s="1">
         <v>44147</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C136">
@@ -2211,7 +2213,7 @@
       <c r="A137" s="1">
         <v>44148</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C137">
@@ -2225,7 +2227,7 @@
       <c r="A138" s="1">
         <v>44149</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C138">
@@ -2239,7 +2241,7 @@
       <c r="A139" s="1">
         <v>44150</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C139">
@@ -2253,7 +2255,7 @@
       <c r="A140" s="1">
         <v>44151</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C140">
@@ -2267,7 +2269,7 @@
       <c r="A141" s="1">
         <v>44152</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C141">
@@ -2281,7 +2283,7 @@
       <c r="A142" s="1">
         <v>44153</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C142">
@@ -2295,7 +2297,7 @@
       <c r="A143" s="1">
         <v>44154</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C143">
@@ -2309,7 +2311,7 @@
       <c r="A144" s="1">
         <v>44155</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C144">
@@ -2323,7 +2325,7 @@
       <c r="A145" s="1">
         <v>44156</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C145">
@@ -2337,7 +2339,7 @@
       <c r="A146" s="1">
         <v>44157</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>0.70370370370370372</v>
       </c>
       <c r="C146">
@@ -2351,7 +2353,7 @@
       <c r="A147" s="1">
         <v>44158</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C147">
@@ -2365,7 +2367,7 @@
       <c r="A148" s="1">
         <v>44159</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C148">
@@ -2379,7 +2381,7 @@
       <c r="A149" s="1">
         <v>44160</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="C149">
@@ -2393,7 +2395,7 @@
       <c r="A150" s="1">
         <v>44161</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C150">
@@ -2407,7 +2409,7 @@
       <c r="A151" s="1">
         <v>44162</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>0.7407407407407407</v>
       </c>
       <c r="C151">
@@ -2421,7 +2423,7 @@
       <c r="A152" s="1">
         <v>44163</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="C152">
@@ -2435,7 +2437,7 @@
       <c r="A153" s="1">
         <v>44164</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>0.81481481481481477</v>
       </c>
       <c r="C153">
@@ -2449,7 +2451,7 @@
       <c r="A154" s="1">
         <v>44165</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="C154">
@@ -2463,7 +2465,7 @@
       <c r="A155" s="1">
         <v>44166</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>0.62962962962962965</v>
       </c>
       <c r="C155">
@@ -2477,7 +2479,7 @@
       <c r="A156" s="1">
         <v>44167</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C156">
@@ -2491,7 +2493,7 @@
       <c r="A157" s="1">
         <v>44168</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C157">
@@ -2505,7 +2507,7 @@
       <c r="A158" s="1">
         <v>44169</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C158">
@@ -2519,7 +2521,7 @@
       <c r="A159" s="1">
         <v>44170</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C159">
@@ -2533,7 +2535,7 @@
       <c r="A160" s="1">
         <v>44171</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C160">
@@ -2547,7 +2549,7 @@
       <c r="A161" s="1">
         <v>44172</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C161">
@@ -2561,7 +2563,7 @@
       <c r="A162" s="1">
         <v>44173</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>0.65217391304347827</v>
       </c>
       <c r="C162">
@@ -2575,7 +2577,7 @@
       <c r="A163" s="1">
         <v>44174</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C163">
@@ -2589,7 +2591,7 @@
       <c r="A164" s="1">
         <v>44175</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C164">
@@ -2603,7 +2605,7 @@
       <c r="A165" s="1">
         <v>44176</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C165">
@@ -2617,7 +2619,7 @@
       <c r="A166" s="1">
         <v>44177</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>0.65217391304347827</v>
       </c>
       <c r="C166">
@@ -2631,7 +2633,7 @@
       <c r="A167" s="1">
         <v>44178</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C167">
@@ -2645,7 +2647,7 @@
       <c r="A168" s="1">
         <v>44179</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C168">
@@ -2659,7 +2661,7 @@
       <c r="A169" s="1">
         <v>44180</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C169">
@@ -2673,7 +2675,7 @@
       <c r="A170" s="1">
         <v>44181</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C170">
@@ -2687,7 +2689,7 @@
       <c r="A171" s="1">
         <v>44182</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C171">
@@ -2701,7 +2703,7 @@
       <c r="A172" s="1">
         <v>44183</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C172">
@@ -2715,7 +2717,7 @@
       <c r="A173" s="1">
         <v>44184</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C173">
@@ -2729,7 +2731,7 @@
       <c r="A174" s="1">
         <v>44185</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C174">
@@ -2743,7 +2745,7 @@
       <c r="A175" s="1">
         <v>44186</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C175">
@@ -2757,7 +2759,7 @@
       <c r="A176" s="1">
         <v>44187</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C176">
@@ -2771,7 +2773,7 @@
       <c r="A177" s="1">
         <v>44188</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C177">
@@ -2785,7 +2787,7 @@
       <c r="A178" s="1">
         <v>44189</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C178">
@@ -2799,7 +2801,7 @@
       <c r="A179" s="1">
         <v>44190</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C179">
@@ -2813,7 +2815,7 @@
       <c r="A180" s="1">
         <v>44191</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C180">
@@ -2827,7 +2829,7 @@
       <c r="A181" s="1">
         <v>44192</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C181">
@@ -2841,7 +2843,7 @@
       <c r="A182" s="1">
         <v>44193</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C182">
@@ -2855,7 +2857,7 @@
       <c r="A183" s="1">
         <v>44194</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C183">
@@ -2869,7 +2871,7 @@
       <c r="A184" s="1">
         <v>44195</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C184">
@@ -2883,7 +2885,7 @@
       <c r="A185" s="1">
         <v>44196</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>0.69565217391304346</v>
       </c>
       <c r="C185">
@@ -2897,7 +2899,7 @@
       <c r="A186" s="1">
         <v>44197</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C186">
@@ -2911,7 +2913,7 @@
       <c r="A187" s="1">
         <v>44198</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C187">
@@ -2925,7 +2927,7 @@
       <c r="A188" s="1">
         <v>44199</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>0.73913043478260865</v>
       </c>
       <c r="C188">
@@ -2939,7 +2941,7 @@
       <c r="A189" s="1">
         <v>44200</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C189">
@@ -2953,7 +2955,7 @@
       <c r="A190" s="1">
         <v>44201</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C190">
@@ -2967,7 +2969,7 @@
       <c r="A191" s="1">
         <v>44202</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C191">
@@ -2981,7 +2983,7 @@
       <c r="A192" s="1">
         <v>44203</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>0.78260869565217395</v>
       </c>
       <c r="C192">
@@ -2995,7 +2997,7 @@
       <c r="A193" s="1">
         <v>44204</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>0.8571428571428571</v>
       </c>
       <c r="C193">
@@ -3009,7 +3011,7 @@
       <c r="A194" s="1">
         <v>44205</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>0.72</v>
       </c>
       <c r="C194">
@@ -3023,7 +3025,7 @@
       <c r="A195" s="1">
         <v>44206</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>0.86956521739130432</v>
       </c>
       <c r="C195">
@@ -3037,7 +3039,7 @@
       <c r="A196" s="1">
         <v>44207</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>0.86956521739130432</v>
       </c>
       <c r="C196">
@@ -3051,7 +3053,7 @@
       <c r="A197" s="1">
         <v>44208</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>0.86956521739130432</v>
       </c>
       <c r="C197">
@@ -3065,7 +3067,7 @@
       <c r="A198" s="1">
         <v>44209</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C198">
@@ -3079,7 +3081,7 @@
       <c r="A199" s="1">
         <v>44210</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C199">
@@ -3093,7 +3095,7 @@
       <c r="A200" s="1">
         <v>44211</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>0.95652173913043481</v>
       </c>
       <c r="C200">
@@ -3107,7 +3109,7 @@
       <c r="A201" s="1">
         <v>44212</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>0.95652173913043481</v>
       </c>
       <c r="C201">
@@ -3121,7 +3123,7 @@
       <c r="A202" s="1">
         <v>44213</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>1</v>
       </c>
       <c r="C202">
@@ -3135,7 +3137,7 @@
       <c r="A203" s="1">
         <v>44214</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>1</v>
       </c>
       <c r="C203">
@@ -3149,7 +3151,7 @@
       <c r="A204" s="1">
         <v>44215</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>1</v>
       </c>
       <c r="C204">
@@ -3163,7 +3165,7 @@
       <c r="A205" s="1">
         <v>44216</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>1</v>
       </c>
       <c r="C205">
@@ -3177,7 +3179,7 @@
       <c r="A206" s="1">
         <v>44217</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
         <v>0.84</v>
       </c>
       <c r="C206">
@@ -3191,7 +3193,7 @@
       <c r="A207" s="1">
         <v>44218</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
         <v>0.86956521739130432</v>
       </c>
       <c r="C207">
@@ -3205,7 +3207,7 @@
       <c r="A208" s="1">
         <v>44219</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>0.82608695652173914</v>
       </c>
       <c r="C208">
@@ -3219,7 +3221,7 @@
       <c r="A209" s="1">
         <v>44220</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C209">
@@ -3233,7 +3235,7 @@
       <c r="A210" s="1">
         <v>44221</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>0.86956521739130432</v>
       </c>
       <c r="C210">
@@ -3247,7 +3249,7 @@
       <c r="A211" s="1">
         <v>44222</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="2">
         <v>0.82608695652173914</v>
       </c>
       <c r="C211">
@@ -3261,7 +3263,7 @@
       <c r="A212" s="1">
         <v>44223</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C212">
@@ -3275,7 +3277,7 @@
       <c r="A213" s="1">
         <v>44224</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C213">
@@ -3289,7 +3291,7 @@
       <c r="A214" s="1">
         <v>44225</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
         <v>0.91304347826086951</v>
       </c>
       <c r="C214">
@@ -3303,7 +3305,7 @@
       <c r="A215" s="1">
         <v>44226</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="C215">
@@ -3317,7 +3319,7 @@
       <c r="A216" s="1">
         <v>44227</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="C216">
@@ -3331,7 +3333,7 @@
       <c r="A217" s="1">
         <v>44228</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
         <v>0.92</v>
       </c>
       <c r="C217">
@@ -3345,7 +3347,7 @@
       <c r="A218" s="1">
         <v>44229</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
         <v>0.92</v>
       </c>
       <c r="C218">
@@ -3359,7 +3361,7 @@
       <c r="A219" s="1">
         <v>44230</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>0.875</v>
       </c>
       <c r="C219">
@@ -3373,7 +3375,7 @@
       <c r="A220" s="1">
         <v>44231</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>0.875</v>
       </c>
       <c r="C220">
@@ -3387,7 +3389,7 @@
       <c r="A221" s="1">
         <v>44232</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
         <v>0.8571428571428571</v>
       </c>
       <c r="C221">
@@ -3401,7 +3403,7 @@
       <c r="A222" s="1">
         <v>44233</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
         <v>0.8571428571428571</v>
       </c>
       <c r="C222">
@@ -3415,7 +3417,7 @@
       <c r="A223" s="1">
         <v>44234</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
         <v>0.8571428571428571</v>
       </c>
       <c r="C223">
@@ -3429,7 +3431,7 @@
       <c r="A224" s="1">
         <v>44235</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C224">
@@ -3443,7 +3445,7 @@
       <c r="A225" s="1">
         <v>44236</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
         <v>0.97142857142857142</v>
       </c>
       <c r="C225">
@@ -3457,7 +3459,7 @@
       <c r="A226" s="1">
         <v>44237</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
         <v>0.97142857142857142</v>
       </c>
       <c r="C226">
@@ -3471,7 +3473,7 @@
       <c r="A227" s="1">
         <v>44238</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C227">
@@ -3485,7 +3487,7 @@
       <c r="A228" s="1">
         <v>44239</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C228">
@@ -3499,7 +3501,7 @@
       <c r="A229" s="1">
         <v>44240</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C229">
@@ -3513,7 +3515,7 @@
       <c r="A230" s="1">
         <v>44241</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C230">
@@ -3527,7 +3529,7 @@
       <c r="A231" s="1">
         <v>44242</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
         <v>0.97142857142857142</v>
       </c>
       <c r="C231">
@@ -3541,7 +3543,7 @@
       <c r="A232" s="1">
         <v>44243</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="C232">
@@ -3555,7 +3557,7 @@
       <c r="A233" s="1">
         <v>44244</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
         <v>0.94285714285714284</v>
       </c>
       <c r="C233">
@@ -3569,7 +3571,7 @@
       <c r="A234" s="1">
         <v>44245</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="C234">
@@ -3583,7 +3585,7 @@
       <c r="A235" s="1">
         <v>44246</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>1</v>
       </c>
       <c r="C235">
@@ -3597,7 +3599,7 @@
       <c r="A236" s="1">
         <v>44247</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
         <v>1</v>
       </c>
       <c r="C236">
@@ -3611,7 +3613,7 @@
       <c r="A237" s="1">
         <v>44248</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C237">
@@ -3625,7 +3627,7 @@
       <c r="A238" s="1">
         <v>44249</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C238">
@@ -3639,7 +3641,7 @@
       <c r="A239" s="1">
         <v>44250</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C239">
@@ -3653,7 +3655,7 @@
       <c r="A240" s="1">
         <v>44251</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C240">
@@ -3667,7 +3669,7 @@
       <c r="A241" s="1">
         <v>44252</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C241">
@@ -3681,7 +3683,7 @@
       <c r="A242" s="1">
         <v>44253</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
         <v>1</v>
       </c>
       <c r="C242">
@@ -3695,7 +3697,7 @@
       <c r="A243" s="1">
         <v>44254</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
         <v>1</v>
       </c>
       <c r="C243">
@@ -3709,7 +3711,7 @@
       <c r="A244" s="1">
         <v>44255</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>0.95</v>
       </c>
       <c r="C244">
@@ -3723,7 +3725,7 @@
       <c r="A245" s="1">
         <v>44256</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C245">
@@ -3737,7 +3739,7 @@
       <c r="A246" s="1">
         <v>44257</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
         <v>0.95</v>
       </c>
       <c r="C246">
@@ -3751,7 +3753,7 @@
       <c r="A247" s="1">
         <v>44258</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C247">
@@ -3765,7 +3767,7 @@
       <c r="A248" s="1">
         <v>44259</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C248">
@@ -3779,7 +3781,7 @@
       <c r="A249" s="1">
         <v>44260</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
         <v>0.92500000000000004</v>
       </c>
       <c r="C249">
@@ -3793,7 +3795,7 @@
       <c r="A250" s="1">
         <v>44261</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
         <v>0.9</v>
       </c>
       <c r="C250">
@@ -3807,7 +3809,7 @@
       <c r="A251" s="1">
         <v>44262</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
         <v>0.9</v>
       </c>
       <c r="C251">
@@ -3821,7 +3823,7 @@
       <c r="A252" s="1">
         <v>44263</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
         <v>0.9</v>
       </c>
       <c r="C252">
@@ -3835,7 +3837,7 @@
       <c r="A253" s="1">
         <v>44264</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="2">
         <v>0.9</v>
       </c>
       <c r="C253">
@@ -3849,7 +3851,7 @@
       <c r="A254" s="1">
         <v>44265</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
         <v>0.9</v>
       </c>
       <c r="C254">
@@ -3863,7 +3865,7 @@
       <c r="A255" s="1">
         <v>44266</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
         <v>0.9</v>
       </c>
       <c r="C255">
@@ -3877,7 +3879,7 @@
       <c r="A256" s="1">
         <v>44267</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
         <v>0.9</v>
       </c>
       <c r="C256">
@@ -3891,7 +3893,7 @@
       <c r="A257" s="1">
         <v>44268</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
         <v>0.9</v>
       </c>
       <c r="C257">
@@ -3905,7 +3907,7 @@
       <c r="A258" s="1">
         <v>44269</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
         <v>0.9</v>
       </c>
       <c r="C258">
@@ -3919,7 +3921,7 @@
       <c r="A259" s="1">
         <v>44270</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
         <v>0.9</v>
       </c>
       <c r="C259">
@@ -3933,7 +3935,7 @@
       <c r="A260" s="1">
         <v>44271</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
         <v>0.9</v>
       </c>
       <c r="C260">
@@ -3947,7 +3949,7 @@
       <c r="A261" s="1">
         <v>44272</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="2">
         <v>1</v>
       </c>
       <c r="C261">
@@ -3961,7 +3963,7 @@
       <c r="A262" s="1">
         <v>44273</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
         <v>1</v>
       </c>
       <c r="C262">
@@ -3975,7 +3977,7 @@
       <c r="A263" s="1">
         <v>44274</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>1</v>
       </c>
       <c r="C263">
@@ -3989,7 +3991,7 @@
       <c r="A264" s="1">
         <v>44275</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>0.95348837209302328</v>
       </c>
       <c r="C264">
@@ -4003,7 +4005,7 @@
       <c r="A265" s="1">
         <v>44276</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>0.95348837209302328</v>
       </c>
       <c r="C265">
@@ -4017,7 +4019,7 @@
       <c r="A266" s="1">
         <v>44277</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>1</v>
       </c>
       <c r="C266">
@@ -4031,7 +4033,7 @@
       <c r="A267" s="1">
         <v>44278</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>1</v>
       </c>
       <c r="C267">
@@ -4045,7 +4047,7 @@
       <c r="A268" s="1">
         <v>44279</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
         <v>1</v>
       </c>
       <c r="C268">
@@ -4059,7 +4061,7 @@
       <c r="A269" s="1">
         <v>44280</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
         <v>1</v>
       </c>
       <c r="C269">
@@ -4073,7 +4075,7 @@
       <c r="A270" s="1">
         <v>44281</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
         <v>0.86046511627906974</v>
       </c>
       <c r="C270">
@@ -4087,7 +4089,7 @@
       <c r="A271" s="1">
         <v>44282</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
         <v>0.86046511627906974</v>
       </c>
       <c r="C271">
@@ -4101,7 +4103,7 @@
       <c r="A272" s="1">
         <v>44283</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
         <v>0.86046511627906974</v>
       </c>
       <c r="C272">
@@ -4115,7 +4117,7 @@
       <c r="A273" s="1">
         <v>44284</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
         <v>1</v>
       </c>
       <c r="C273">
@@ -4129,7 +4131,7 @@
       <c r="A274" s="1">
         <v>44285</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
         <v>1</v>
       </c>
       <c r="C274">
@@ -4143,7 +4145,7 @@
       <c r="A275" s="1">
         <v>44286</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
         <v>1</v>
       </c>
       <c r="C275">
@@ -4157,7 +4159,7 @@
       <c r="A276" s="1">
         <v>44287</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="2">
         <v>1</v>
       </c>
       <c r="C276">
@@ -4171,7 +4173,7 @@
       <c r="A277" s="1">
         <v>44288</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>1</v>
       </c>
       <c r="C277">
@@ -4185,7 +4187,7 @@
       <c r="A278" s="1">
         <v>44289</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
         <v>1</v>
       </c>
       <c r="C278">
@@ -4199,7 +4201,7 @@
       <c r="A279" s="1">
         <v>44290</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
         <v>1</v>
       </c>
       <c r="C279">
@@ -4213,7 +4215,7 @@
       <c r="A280" s="1">
         <v>44291</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="2">
         <v>1</v>
       </c>
       <c r="C280">
@@ -4227,7 +4229,7 @@
       <c r="A281" s="1">
         <v>44292</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="2">
         <v>1</v>
       </c>
       <c r="C281">
@@ -4241,7 +4243,7 @@
       <c r="A282" s="1">
         <v>44293</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="2">
         <v>1</v>
       </c>
       <c r="C282">
@@ -4255,7 +4257,7 @@
       <c r="A283" s="1">
         <v>44294</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="2">
         <v>1</v>
       </c>
       <c r="C283">
@@ -4269,7 +4271,7 @@
       <c r="A284" s="1">
         <v>44295</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
         <v>1</v>
       </c>
       <c r="C284">
@@ -4283,7 +4285,7 @@
       <c r="A285" s="1">
         <v>44296</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="2">
         <v>1</v>
       </c>
       <c r="C285">
@@ -4297,7 +4299,7 @@
       <c r="A286" s="1">
         <v>44297</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
         <v>1</v>
       </c>
       <c r="C286">
@@ -4311,7 +4313,7 @@
       <c r="A287" s="1">
         <v>44298</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="2">
         <v>1</v>
       </c>
       <c r="C287">
@@ -4325,7 +4327,7 @@
       <c r="A288" s="1">
         <v>44299</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
         <v>1</v>
       </c>
       <c r="C288">
@@ -4339,7 +4341,7 @@
       <c r="A289" s="1">
         <v>44300</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="2">
         <v>1</v>
       </c>
       <c r="C289">
@@ -4353,7 +4355,7 @@
       <c r="A290" s="1">
         <v>44301</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="2">
         <v>1</v>
       </c>
       <c r="C290">
@@ -4367,7 +4369,7 @@
       <c r="A291" s="1">
         <v>44302</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="2">
         <v>1</v>
       </c>
       <c r="C291">
@@ -4381,7 +4383,7 @@
       <c r="A292" s="1">
         <v>44303</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="2">
         <v>1</v>
       </c>
       <c r="C292">
@@ -4395,7 +4397,7 @@
       <c r="A293" s="1">
         <v>44304</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
         <v>1</v>
       </c>
       <c r="C293">
@@ -4409,7 +4411,7 @@
       <c r="A294" s="1">
         <v>44305</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="2">
         <v>0.8666666666666667</v>
       </c>
       <c r="C294">
@@ -4423,7 +4425,7 @@
       <c r="A295" s="1">
         <v>44306</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="2">
         <v>1</v>
       </c>
       <c r="C295">
@@ -4437,7 +4439,7 @@
       <c r="A296" s="1">
         <v>44307</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="2">
         <v>1</v>
       </c>
       <c r="C296">
@@ -4451,7 +4453,7 @@
       <c r="A297" s="1">
         <v>44308</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="2">
         <v>1</v>
       </c>
       <c r="C297">
@@ -4465,7 +4467,7 @@
       <c r="A298" s="1">
         <v>44309</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="2">
         <v>1</v>
       </c>
       <c r="C298">
@@ -4479,7 +4481,7 @@
       <c r="A299" s="1">
         <v>44310</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
         <v>1</v>
       </c>
       <c r="C299">
@@ -4493,7 +4495,7 @@
       <c r="A300" s="1">
         <v>44311</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="2">
         <v>1</v>
       </c>
       <c r="C300">
@@ -4507,7 +4509,7 @@
       <c r="A301" s="1">
         <v>44312</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
         <v>1</v>
       </c>
       <c r="C301">
@@ -4521,7 +4523,7 @@
       <c r="A302" s="1">
         <v>44313</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="2">
         <v>1</v>
       </c>
       <c r="C302">
@@ -4535,7 +4537,7 @@
       <c r="A303" s="1">
         <v>44314</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
         <v>1</v>
       </c>
       <c r="C303">
@@ -4549,7 +4551,7 @@
       <c r="A304" s="1">
         <v>44315</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
         <v>1</v>
       </c>
       <c r="C304">
@@ -4563,7 +4565,7 @@
       <c r="A305" s="1">
         <v>44316</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <v>1</v>
       </c>
       <c r="C305">
@@ -4577,7 +4579,7 @@
       <c r="A306" s="1">
         <v>44317</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <v>1</v>
       </c>
       <c r="C306">
@@ -4591,7 +4593,7 @@
       <c r="A307" s="1">
         <v>44318</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <v>1</v>
       </c>
       <c r="C307">
@@ -4605,7 +4607,7 @@
       <c r="A308" s="1">
         <v>44319</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
         <v>1</v>
       </c>
       <c r="C308">
@@ -4619,7 +4621,7 @@
       <c r="A309" s="1">
         <v>44320</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309">
@@ -4633,7 +4635,7 @@
       <c r="A310" s="1">
         <v>44321</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="2">
         <v>1</v>
       </c>
       <c r="C310">
@@ -4647,7 +4649,7 @@
       <c r="A311" s="1">
         <v>44322</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="2">
         <v>1</v>
       </c>
       <c r="C311">
@@ -4661,7 +4663,7 @@
       <c r="A312" s="1">
         <v>44323</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="2">
         <v>1</v>
       </c>
       <c r="C312">
@@ -4675,7 +4677,7 @@
       <c r="A313" s="1">
         <v>44324</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="2">
         <v>1</v>
       </c>
       <c r="C313">
@@ -4689,7 +4691,7 @@
       <c r="A314" s="1">
         <v>44325</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
         <v>1</v>
       </c>
       <c r="C314">
@@ -4703,7 +4705,7 @@
       <c r="A315" s="1">
         <v>44326</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="2">
         <v>1</v>
       </c>
       <c r="C315">
@@ -4717,7 +4719,7 @@
       <c r="A316" s="1">
         <v>44327</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
         <v>1</v>
       </c>
       <c r="C316">
@@ -4731,7 +4733,7 @@
       <c r="A317" s="1">
         <v>44328</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="2">
         <v>1</v>
       </c>
       <c r="C317">
@@ -4745,7 +4747,7 @@
       <c r="A318" s="1">
         <v>44329</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318">
@@ -4759,7 +4761,7 @@
       <c r="A319" s="1">
         <v>44330</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
         <v>1</v>
       </c>
       <c r="C319">
@@ -4773,7 +4775,7 @@
       <c r="A320" s="1">
         <v>44331</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
         <v>1</v>
       </c>
       <c r="C320">
@@ -4787,7 +4789,7 @@
       <c r="A321" s="1">
         <v>44332</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="2">
         <v>1</v>
       </c>
       <c r="C321">
@@ -4801,7 +4803,7 @@
       <c r="A322" s="1">
         <v>44333</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322">
@@ -4815,7 +4817,7 @@
       <c r="A323" s="1">
         <v>44334</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
         <v>1</v>
       </c>
       <c r="C323">
@@ -4829,7 +4831,7 @@
       <c r="A324" s="1">
         <v>44335</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
         <v>1</v>
       </c>
       <c r="C324">
@@ -4843,7 +4845,7 @@
       <c r="A325" s="1">
         <v>44336</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
         <v>1</v>
       </c>
       <c r="C325">
@@ -4857,7 +4859,7 @@
       <c r="A326" s="1">
         <v>44337</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="2">
         <v>1</v>
       </c>
       <c r="C326">
@@ -4871,7 +4873,7 @@
       <c r="A327" s="1">
         <v>44338</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="2">
         <v>1</v>
       </c>
       <c r="C327">
@@ -4885,7 +4887,7 @@
       <c r="A328" s="1">
         <v>44339</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="2">
         <v>1</v>
       </c>
       <c r="C328">
@@ -4899,7 +4901,7 @@
       <c r="A329" s="1">
         <v>44340</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="2">
         <v>1</v>
       </c>
       <c r="C329">
@@ -4913,7 +4915,7 @@
       <c r="A330" s="1">
         <v>44341</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="2">
         <v>1</v>
       </c>
       <c r="C330">
@@ -4927,7 +4929,7 @@
       <c r="A331" s="1">
         <v>44342</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="2">
         <v>1</v>
       </c>
       <c r="C331">
@@ -4941,7 +4943,7 @@
       <c r="A332" s="1">
         <v>44343</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="2">
         <v>1</v>
       </c>
       <c r="C332">
@@ -4955,7 +4957,7 @@
       <c r="A333" s="1">
         <v>44344</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="2">
         <v>1</v>
       </c>
       <c r="C333">
@@ -4969,7 +4971,7 @@
       <c r="A334" s="1">
         <v>44345</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="2">
         <v>1</v>
       </c>
       <c r="C334">
@@ -4983,7 +4985,7 @@
       <c r="A335" s="1">
         <v>44346</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="2">
         <v>1</v>
       </c>
       <c r="C335">
@@ -5000,7 +5002,7 @@
       <c r="A336" s="1">
         <v>44347</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="2">
         <v>1</v>
       </c>
       <c r="C336">
@@ -5017,7 +5019,7 @@
       <c r="A337" s="1">
         <v>44348</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
         <v>1</v>
       </c>
       <c r="C337">
@@ -5034,7 +5036,7 @@
       <c r="A338" s="1">
         <v>44349</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="2">
         <v>1</v>
       </c>
       <c r="C338">
@@ -5051,7 +5053,7 @@
       <c r="A339" s="1">
         <v>44350</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
         <v>1</v>
       </c>
       <c r="C339">
@@ -5068,7 +5070,7 @@
       <c r="A340" s="1">
         <v>44351</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="2">
         <v>1</v>
       </c>
       <c r="C340">
@@ -5085,7 +5087,7 @@
       <c r="A341" s="1">
         <v>44352</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
         <v>1</v>
       </c>
       <c r="C341">
@@ -5102,7 +5104,7 @@
       <c r="A342" s="1">
         <v>44353</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="2">
         <v>1</v>
       </c>
       <c r="C342">
@@ -5119,7 +5121,7 @@
       <c r="A343" s="1">
         <v>44354</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
         <v>1</v>
       </c>
       <c r="C343">
@@ -5136,7 +5138,7 @@
       <c r="A344" s="1">
         <v>44355</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="2">
         <v>1</v>
       </c>
       <c r="C344">
@@ -5153,7 +5155,7 @@
       <c r="A345" s="1">
         <v>44356</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="2">
         <v>1</v>
       </c>
       <c r="C345">
@@ -5170,7 +5172,7 @@
       <c r="A346" s="1">
         <v>44357</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
         <v>1</v>
       </c>
       <c r="C346">
@@ -5187,7 +5189,7 @@
       <c r="A347" s="1">
         <v>44358</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="2">
         <v>1</v>
       </c>
       <c r="C347">
@@ -5204,7 +5206,7 @@
       <c r="A348" s="1">
         <v>44359</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="2">
         <v>1</v>
       </c>
       <c r="C348">
@@ -5221,7 +5223,7 @@
       <c r="A349" s="1">
         <v>44360</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="2">
         <v>1</v>
       </c>
       <c r="C349">
@@ -5238,7 +5240,7 @@
       <c r="A350" s="1">
         <v>44361</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="2">
         <v>1</v>
       </c>
       <c r="C350">
@@ -5255,7 +5257,7 @@
       <c r="A351" s="1">
         <v>44362</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="2">
         <v>1</v>
       </c>
       <c r="C351">
@@ -5272,7 +5274,7 @@
       <c r="A352" s="1">
         <v>44363</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>1</v>
       </c>
       <c r="C352">
@@ -5289,7 +5291,7 @@
       <c r="A353" s="1">
         <v>44364</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="2">
         <v>1</v>
       </c>
       <c r="C353">
@@ -5306,7 +5308,7 @@
       <c r="A354" s="1">
         <v>44365</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="2">
         <v>1</v>
       </c>
       <c r="C354">
@@ -5323,7 +5325,7 @@
       <c r="A355" s="1">
         <v>44366</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355">
@@ -5340,7 +5342,7 @@
       <c r="A356" s="1">
         <v>44367</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="2">
         <v>1</v>
       </c>
       <c r="C356">
@@ -5357,7 +5359,7 @@
       <c r="A357" s="1">
         <v>44368</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="2">
         <v>1</v>
       </c>
       <c r="C357">
@@ -5374,7 +5376,7 @@
       <c r="A358" s="1">
         <v>44369</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358">
@@ -5391,7 +5393,7 @@
       <c r="A359" s="1">
         <v>44370</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
         <v>1</v>
       </c>
       <c r="C359">
@@ -5408,7 +5410,7 @@
       <c r="A360" s="1">
         <v>44371</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360">
@@ -5425,7 +5427,7 @@
       <c r="A361" s="1">
         <v>44372</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="2">
         <v>1</v>
       </c>
       <c r="C361">
@@ -5442,7 +5444,7 @@
       <c r="A362" s="1">
         <v>44373</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="2">
         <v>1</v>
       </c>
       <c r="C362">
@@ -5459,7 +5461,7 @@
       <c r="A363" s="1">
         <v>44374</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="2">
         <v>1</v>
       </c>
       <c r="C363">
@@ -5476,7 +5478,7 @@
       <c r="A364" s="1">
         <v>44375</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="2">
         <v>1</v>
       </c>
       <c r="C364">
@@ -5493,7 +5495,7 @@
       <c r="A365" s="1">
         <v>44376</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="2">
         <v>1</v>
       </c>
       <c r="C365">
@@ -5510,7 +5512,7 @@
       <c r="A366" s="1">
         <v>44377</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="2">
         <v>1</v>
       </c>
       <c r="C366">
@@ -5527,7 +5529,7 @@
       <c r="A367" s="1">
         <v>44378</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="2">
         <v>1</v>
       </c>
       <c r="C367">
@@ -5544,7 +5546,7 @@
       <c r="A368" s="1">
         <v>44379</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="2">
         <v>1</v>
       </c>
       <c r="C368">
@@ -5561,7 +5563,7 @@
       <c r="A369" s="1">
         <v>44380</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="2">
         <v>1</v>
       </c>
       <c r="C369">
@@ -5578,7 +5580,7 @@
       <c r="A370" s="1">
         <v>44381</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="2">
         <v>1</v>
       </c>
       <c r="C370">
@@ -5595,7 +5597,7 @@
       <c r="A371" s="1">
         <v>44382</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C371">
@@ -5612,7 +5614,7 @@
       <c r="A372" s="1">
         <v>44383</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C372">
@@ -5629,7 +5631,7 @@
       <c r="A373" s="1">
         <v>44384</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="2">
         <v>1</v>
       </c>
       <c r="C373">
@@ -5646,7 +5648,7 @@
       <c r="A374" s="1">
         <v>44385</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="2">
         <v>1</v>
       </c>
       <c r="C374">
@@ -5663,7 +5665,7 @@
       <c r="A375" s="1">
         <v>44386</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="2">
         <v>1</v>
       </c>
       <c r="C375">
@@ -5680,7 +5682,7 @@
       <c r="A376" s="1">
         <v>44387</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="2">
         <v>1</v>
       </c>
       <c r="C376">
@@ -5697,7 +5699,7 @@
       <c r="A377" s="1">
         <v>44388</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="2">
         <v>1</v>
       </c>
       <c r="C377">
@@ -5714,7 +5716,7 @@
       <c r="A378" s="1">
         <v>44389</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="2">
         <v>1</v>
       </c>
       <c r="C378">
@@ -5731,7 +5733,7 @@
       <c r="A379" s="1">
         <v>44390</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="2">
         <v>1</v>
       </c>
       <c r="C379">
@@ -5748,7 +5750,7 @@
       <c r="A380" s="1">
         <v>44391</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="2">
         <v>1</v>
       </c>
       <c r="C380">
@@ -5765,7 +5767,7 @@
       <c r="A381" s="1">
         <v>44392</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="2">
         <v>1</v>
       </c>
       <c r="C381">
@@ -5782,7 +5784,7 @@
       <c r="A382" s="1">
         <v>44393</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="2">
         <v>1</v>
       </c>
       <c r="C382">
@@ -5799,7 +5801,7 @@
       <c r="A383" s="1">
         <v>44394</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="2">
         <v>1</v>
       </c>
       <c r="C383">
@@ -5816,7 +5818,7 @@
       <c r="A384" s="1">
         <v>44395</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="2">
         <v>1</v>
       </c>
       <c r="C384">
@@ -5833,7 +5835,7 @@
       <c r="A385" s="1">
         <v>44396</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="2">
         <v>1</v>
       </c>
       <c r="C385">
@@ -5850,7 +5852,7 @@
       <c r="A386" s="1">
         <v>44397</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
         <v>1</v>
       </c>
       <c r="C386">
@@ -5867,7 +5869,7 @@
       <c r="A387" s="1">
         <v>44398</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="2">
         <v>1</v>
       </c>
       <c r="C387">
@@ -5884,7 +5886,7 @@
       <c r="A388" s="1">
         <v>44399</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="2">
         <v>1</v>
       </c>
       <c r="C388">
@@ -5901,7 +5903,7 @@
       <c r="A389" s="1">
         <v>44400</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="2">
         <v>1</v>
       </c>
       <c r="C389">
@@ -5918,7 +5920,7 @@
       <c r="A390" s="1">
         <v>44401</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="2">
         <v>1</v>
       </c>
       <c r="C390">
@@ -5935,7 +5937,7 @@
       <c r="A391" s="1">
         <v>44402</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="2">
         <v>1</v>
       </c>
       <c r="C391">
@@ -5952,7 +5954,7 @@
       <c r="A392" s="1">
         <v>44403</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="2">
         <v>1</v>
       </c>
       <c r="C392">
@@ -5969,7 +5971,7 @@
       <c r="A393" s="1">
         <v>44404</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="2">
         <v>1</v>
       </c>
       <c r="C393">
@@ -5986,7 +5988,7 @@
       <c r="A394" s="1">
         <v>44405</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="2">
         <v>1</v>
       </c>
       <c r="C394">
@@ -6003,7 +6005,7 @@
       <c r="A395" s="1">
         <v>44406</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="2">
         <v>1</v>
       </c>
       <c r="C395">
@@ -6020,7 +6022,7 @@
       <c r="A396" s="1">
         <v>44407</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="2">
         <v>1</v>
       </c>
       <c r="C396">
@@ -6037,7 +6039,7 @@
       <c r="A397" s="1">
         <v>44408</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="2">
         <v>1</v>
       </c>
       <c r="C397">
@@ -6054,7 +6056,7 @@
       <c r="A398" s="1">
         <v>44409</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="2">
         <v>1</v>
       </c>
       <c r="C398">
@@ -6071,7 +6073,7 @@
       <c r="A399" s="1">
         <v>44410</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="2">
         <v>1</v>
       </c>
       <c r="C399">
@@ -6088,7 +6090,7 @@
       <c r="A400" s="1">
         <v>44411</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="2">
         <v>1</v>
       </c>
       <c r="C400">
@@ -6105,7 +6107,7 @@
       <c r="A401" s="1">
         <v>44412</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="2">
         <v>1</v>
       </c>
       <c r="C401">
@@ -6122,7 +6124,7 @@
       <c r="A402" s="1">
         <v>44413</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C402">
@@ -6139,7 +6141,7 @@
       <c r="A403" s="1">
         <v>44414</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C403">
@@ -6156,7 +6158,7 @@
       <c r="A404" s="1">
         <v>44415</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C404">
@@ -6173,7 +6175,7 @@
       <c r="A405" s="1">
         <v>44416</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C405">
@@ -6190,7 +6192,7 @@
       <c r="A406" s="1">
         <v>44417</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C406">
@@ -6207,7 +6209,7 @@
       <c r="A407" s="1">
         <v>44418</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="2">
         <v>1</v>
       </c>
       <c r="C407">
@@ -6224,7 +6226,7 @@
       <c r="A408" s="1">
         <v>44419</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="2">
         <v>1</v>
       </c>
       <c r="C408">
@@ -6241,7 +6243,7 @@
       <c r="A409" s="1">
         <v>44420</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="2">
         <v>1</v>
       </c>
       <c r="C409">
@@ -6258,7 +6260,7 @@
       <c r="A410" s="1">
         <v>44421</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="2">
         <v>1</v>
       </c>
       <c r="C410">
@@ -6275,7 +6277,7 @@
       <c r="A411" s="1">
         <v>44422</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="2">
         <v>1</v>
       </c>
       <c r="C411">
@@ -6292,7 +6294,7 @@
       <c r="A412" s="1">
         <v>44423</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="2">
         <v>1</v>
       </c>
       <c r="C412">
@@ -6309,7 +6311,7 @@
       <c r="A413" s="1">
         <v>44424</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="2">
         <v>1</v>
       </c>
       <c r="C413">
@@ -6326,7 +6328,7 @@
       <c r="A414" s="1">
         <v>44425</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C414">
@@ -6343,7 +6345,7 @@
       <c r="A415" s="1">
         <v>44426</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C415">
@@ -6360,7 +6362,7 @@
       <c r="A416" s="1">
         <v>44427</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C416">
@@ -6377,7 +6379,7 @@
       <c r="A417" s="1">
         <v>44428</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="2">
         <v>1</v>
       </c>
       <c r="C417">
@@ -6394,7 +6396,7 @@
       <c r="A418" s="1">
         <v>44429</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="2">
         <v>1</v>
       </c>
       <c r="C418">
@@ -6411,7 +6413,7 @@
       <c r="A419" s="1">
         <v>44430</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="2">
         <v>1</v>
       </c>
       <c r="C419">
@@ -6428,7 +6430,7 @@
       <c r="A420" s="1">
         <v>44431</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="2">
         <v>1</v>
       </c>
       <c r="C420">
@@ -6445,7 +6447,7 @@
       <c r="A421" s="1">
         <v>44432</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C421">
@@ -6462,7 +6464,7 @@
       <c r="A422" s="1">
         <v>44433</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C422">
@@ -6479,7 +6481,7 @@
       <c r="A423" s="1">
         <v>44434</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="2">
         <v>0.94871794871794868</v>
       </c>
       <c r="C423">
@@ -6496,7 +6498,7 @@
       <c r="A424" s="1">
         <v>44435</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C424">
@@ -6513,7 +6515,7 @@
       <c r="A425" s="1">
         <v>44436</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C425">
@@ -6530,7 +6532,7 @@
       <c r="A426" s="1">
         <v>44437</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C426">
@@ -6547,7 +6549,7 @@
       <c r="A427" s="1">
         <v>44438</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C427">
@@ -6564,7 +6566,7 @@
       <c r="A428" s="1">
         <v>44439</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="2">
         <v>0.92307692307692313</v>
       </c>
       <c r="C428">
@@ -6581,7 +6583,7 @@
       <c r="A429" s="1">
         <v>44440</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="2">
         <v>0.97435897435897434</v>
       </c>
       <c r="C429">
@@ -6598,7 +6600,7 @@
       <c r="A430" s="1">
         <v>44441</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="2">
         <v>0.92307692307692313</v>
       </c>
       <c r="C430">
@@ -6615,7 +6617,7 @@
       <c r="A431" s="1">
         <v>44442</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="2">
         <v>0.92307692307692313</v>
       </c>
       <c r="C431">
@@ -6632,7 +6634,7 @@
       <c r="A432" s="1">
         <v>44443</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="2">
         <v>0.92307692307692313</v>
       </c>
       <c r="C432">
@@ -6649,7 +6651,7 @@
       <c r="A433" s="1">
         <v>44444</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="2">
         <v>0.92105263157894735</v>
       </c>
       <c r="C433">
@@ -6666,7 +6668,7 @@
       <c r="A434" s="1">
         <v>44445</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="2">
         <v>0.82051282051282048</v>
       </c>
       <c r="C434">
@@ -6683,7 +6685,7 @@
       <c r="A435" s="1">
         <v>44446</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="2">
         <v>0.79487179487179482</v>
       </c>
       <c r="C435">
@@ -6700,7 +6702,7 @@
       <c r="A436" s="1">
         <v>44447</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="2">
         <v>0.79487179487179482</v>
       </c>
       <c r="C436">
@@ -6717,7 +6719,7 @@
       <c r="A437" s="1">
         <v>44448</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="2">
         <v>0.74358974358974361</v>
       </c>
       <c r="C437">
@@ -6734,7 +6736,7 @@
       <c r="A438" s="1">
         <v>44449</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="2">
         <v>0.79487179487179482</v>
       </c>
       <c r="C438">
@@ -6751,7 +6753,7 @@
       <c r="A439" s="1">
         <v>44450</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="2">
         <v>0.79487179487179482</v>
       </c>
       <c r="C439">
@@ -6768,7 +6770,7 @@
       <c r="A440" s="1">
         <v>44451</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="2">
         <v>0.79487179487179482</v>
       </c>
       <c r="C440">
@@ -6785,7 +6787,7 @@
       <c r="A441" s="1">
         <v>44452</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="2">
         <v>0.89189189189189189</v>
       </c>
       <c r="C441">
@@ -6802,7 +6804,7 @@
       <c r="A442" s="1">
         <v>44453</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="2">
         <v>0.89189189189189189</v>
       </c>
       <c r="C442">
@@ -6819,7 +6821,7 @@
       <c r="A443" s="1">
         <v>44454</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="2">
         <v>0.89189189189189189</v>
       </c>
       <c r="C443">
@@ -6836,7 +6838,7 @@
       <c r="A444" s="1">
         <v>44455</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="2">
         <v>0.89189189189189189</v>
       </c>
       <c r="C444">
@@ -6853,7 +6855,7 @@
       <c r="A445" s="1">
         <v>44456</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="2">
         <v>0.92500000000000004</v>
       </c>
       <c r="C445">
@@ -6870,7 +6872,7 @@
       <c r="A446" s="1">
         <v>44457</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="2">
         <v>0.92500000000000004</v>
       </c>
       <c r="C446">
@@ -6881,6 +6883,125 @@
       </c>
       <c r="E446">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="3">
+        <v>44458</v>
+      </c>
+      <c r="B447" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C447">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D447">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="E447">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B448" s="2">
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="C448">
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="D448">
+        <v>0.11952191235059761</v>
+      </c>
+      <c r="E448">
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="3">
+        <v>44460</v>
+      </c>
+      <c r="B449" s="2">
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="C449">
+        <v>0.15118110236220472</v>
+      </c>
+      <c r="D449">
+        <v>8.8709677419354843E-2</v>
+      </c>
+      <c r="E449">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B450" s="2">
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="C450">
+        <v>0.1492063492063492</v>
+      </c>
+      <c r="D450">
+        <v>9.7165991902834009E-2</v>
+      </c>
+      <c r="E450">
+        <v>0.45161290322580644</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="3">
+        <v>44462</v>
+      </c>
+      <c r="B451" s="2">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C451">
+        <v>0.13479623824451412</v>
+      </c>
+      <c r="D451">
+        <v>8.7649402390438252E-2</v>
+      </c>
+      <c r="E451">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="3">
+        <v>44463</v>
+      </c>
+      <c r="B452" s="2">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C452">
+        <v>0.14420062695924765</v>
+      </c>
+      <c r="D452">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="E452">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="3">
+        <v>44464</v>
+      </c>
+      <c r="B453" s="2">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C453">
+        <v>0.14420062695924765</v>
+      </c>
+      <c r="D453">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="E453">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE18D25-2CE6-43A7-AA26-9D84D36AE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C94B7-5BD8-4E11-BB95-1D0AAD45C05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14868" yWindow="2088" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5472" yWindow="696" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E453"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D453" sqref="D453"/>
+      <selection activeCell="A453" sqref="A453:A460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7004,6 +7004,125 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="3">
+        <v>44465</v>
+      </c>
+      <c r="B454">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C454">
+        <v>0.14420062695924765</v>
+      </c>
+      <c r="D454">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="E454">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="3">
+        <v>44466</v>
+      </c>
+      <c r="B455">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C455">
+        <v>0.16275430359937401</v>
+      </c>
+      <c r="D455">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E455">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B456">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C456">
+        <v>0.15179968701095461</v>
+      </c>
+      <c r="D456">
+        <v>0.10756972111553785</v>
+      </c>
+      <c r="E456">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="3">
+        <v>44468</v>
+      </c>
+      <c r="B457">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C457">
+        <v>0.15336463223787167</v>
+      </c>
+      <c r="D457">
+        <v>0.11155378486055777</v>
+      </c>
+      <c r="E457">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="3">
+        <v>44469</v>
+      </c>
+      <c r="B458">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C458">
+        <v>0.1705790297339593</v>
+      </c>
+      <c r="D458">
+        <v>0.11553784860557768</v>
+      </c>
+      <c r="E458">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B459">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C459">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D459">
+        <v>0.11952191235059761</v>
+      </c>
+      <c r="E459">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="3">
+        <v>44471</v>
+      </c>
+      <c r="B460">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C460">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D460">
+        <v>0.11952191235059761</v>
+      </c>
+      <c r="E460">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C94B7-5BD8-4E11-BB95-1D0AAD45C05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB315E-8AA6-4B46-844C-833C19C4BFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5472" yWindow="696" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="600" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -387,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E460"/>
+  <dimension ref="A1:E467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:A460"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7123,6 +7130,125 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="3">
+        <v>44472</v>
+      </c>
+      <c r="B461">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="C461">
+        <v>0.16457680250783699</v>
+      </c>
+      <c r="D461">
+        <v>0.11952191235059761</v>
+      </c>
+      <c r="E461">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="3">
+        <v>44473</v>
+      </c>
+      <c r="B462">
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="C462">
+        <v>0.14330218068535824</v>
+      </c>
+      <c r="D462">
+        <v>0.11553784860557768</v>
+      </c>
+      <c r="E462">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="3">
+        <v>44474</v>
+      </c>
+      <c r="B463">
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="C463">
+        <v>0.15109034267912771</v>
+      </c>
+      <c r="D463">
+        <v>0.11952191235059761</v>
+      </c>
+      <c r="E463">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="3">
+        <v>44475</v>
+      </c>
+      <c r="B464">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="C464">
+        <v>0.14174454828660435</v>
+      </c>
+      <c r="D464">
+        <v>0.10756972111553785</v>
+      </c>
+      <c r="E464">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="3">
+        <v>44476</v>
+      </c>
+      <c r="B465">
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="C465">
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="D465">
+        <v>8.8353413654618476E-2</v>
+      </c>
+      <c r="E465">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="3">
+        <v>44477</v>
+      </c>
+      <c r="B466">
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="C466">
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="D466">
+        <v>8.8353413654618476E-2</v>
+      </c>
+      <c r="E466">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="3">
+        <v>44478</v>
+      </c>
+      <c r="B467">
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="C467">
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="D467">
+        <v>8.8353413654618476E-2</v>
+      </c>
+      <c r="E467">
+        <v>0.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB315E-8AA6-4B46-844C-833C19C4BFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4675CC4-9A58-4B1D-ADAD-00BAAAF111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="600" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4848" yWindow="4920" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E467"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:A467"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7249,6 +7249,125 @@
         <v>0.84</v>
       </c>
     </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="3">
+        <v>44479</v>
+      </c>
+      <c r="B468">
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="C468">
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="D468">
+        <v>8.8353413654618476E-2</v>
+      </c>
+      <c r="E468">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="3">
+        <v>44480</v>
+      </c>
+      <c r="B469">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C469">
+        <v>0.1419656786271451</v>
+      </c>
+      <c r="D469">
+        <v>0.112</v>
+      </c>
+      <c r="E469">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="3">
+        <v>44481</v>
+      </c>
+      <c r="B470">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C470">
+        <v>0.1292834890965732</v>
+      </c>
+      <c r="D470">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="E470">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B471">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C471">
+        <v>0.1292834890965732</v>
+      </c>
+      <c r="D471">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="E471">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="3">
+        <v>44483</v>
+      </c>
+      <c r="B472">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C472">
+        <v>0.12461059190031153</v>
+      </c>
+      <c r="D472">
+        <v>0.1067193675889328</v>
+      </c>
+      <c r="E472">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="3">
+        <v>44484</v>
+      </c>
+      <c r="B473">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C473">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D473">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E473">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="3">
+        <v>44485</v>
+      </c>
+      <c r="B474">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C474">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D474">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E474">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
